--- a/core/+matter/Matter.xlsx
+++ b/core/+matter/Matter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gitlab\core\+matter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="485" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="252"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="20" r:id="rId1"/>
@@ -22,7 +27,7 @@
     <sheet name="steel" sheetId="13" r:id="rId13"/>
     <sheet name="metals" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +42,7 @@
     <author>Maschbauer</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="380">
   <si>
     <t>Molar mass</t>
   </si>
@@ -1189,9 +1194,6 @@
   </si>
   <si>
     <t>alternate name, like water for H2O</t>
-  </si>
-  <si>
-    <t>Name of constant1</t>
   </si>
   <si>
     <t>number of constants is not limited, as long as they written here in a new column</t>
@@ -1211,19 +1213,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Speciesname as chemical equation, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>NEEDED!</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">value of constant1, </t>
     </r>
     <r>
@@ -1239,11 +1228,54 @@
     <t>formation of first 7 rows is strict</t>
   </si>
   <si>
-    <t>formation of first 3 columns after row 7 is strict</t>
+    <t>complete empty rows are not allowed!</t>
+  </si>
+  <si>
+    <t>dimension</t>
+  </si>
+  <si>
+    <t>number of properties is not limited, as long as the name is in the first row and the variablename in the second!</t>
+  </si>
+  <si>
+    <t>source: old vhab matter data &amp; VDI Waermeatlas D2</t>
+  </si>
+  <si>
+    <t>fNy</t>
+  </si>
+  <si>
+    <t>fKappa</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>oxygen</t>
+  </si>
+  <si>
+    <t>carbon dioxid</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>fEpsilon_ir</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>source: VDI Wärmeatlas, Dea 4 (pdf S. 283), Dea 11ff
+epsilon: http://de.wikipedia.org/wiki/Emissionsgrad</t>
+  </si>
+  <si>
+    <t>source: VDI Wärmeatlas, Dea 11ff</t>
+  </si>
+  <si>
+    <t>worksheet has to divided into individual worksheets</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Name of property1, </t>
+      <t xml:space="preserve">Name of property, </t>
     </r>
     <r>
       <rPr>
@@ -1256,7 +1288,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">variablename of property1, </t>
+      <t xml:space="preserve">variablename of property, </t>
     </r>
     <r>
       <rPr>
@@ -1268,11 +1300,8 @@
     </r>
   </si>
   <si>
-    <t>number of properties is not limited, as long as they written here in a new column</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">value of property1, </t>
+      <t xml:space="preserve">value of property, </t>
     </r>
     <r>
       <rPr>
@@ -1284,53 +1313,27 @@
     </r>
   </si>
   <si>
-    <t>complete empty rows are not allowed!</t>
-  </si>
-  <si>
-    <t>dimension</t>
-  </si>
-  <si>
-    <t>number of properties is not limited, as long as the name is in the first row and the variablename in the second!</t>
-  </si>
-  <si>
-    <t>source: old vhab matter data &amp; VDI Waermeatlas D2</t>
-  </si>
-  <si>
-    <t>fNy</t>
-  </si>
-  <si>
-    <t>fKappa</t>
-  </si>
-  <si>
-    <t>nitrogen</t>
-  </si>
-  <si>
-    <t>oxygen</t>
-  </si>
-  <si>
-    <t>carbon dioxid</t>
-  </si>
-  <si>
-    <t>Methane</t>
-  </si>
-  <si>
-    <t>fEpsilon_ir</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>source: VDI Wärmeatlas, Dea 4 (pdf S. 283), Dea 11ff
-epsilon: http://de.wikipedia.org/wiki/Emissionsgrad</t>
-  </si>
-  <si>
-    <t>source: VDI Wärmeatlas, Dea 11ff</t>
-  </si>
-  <si>
-    <t>worksheet has to divided into individual worksheets</t>
-  </si>
-  <si>
-    <t>testtext</t>
+    <t>values of properties is not limited (Excel 2013 allows ‎1.048.576 ‎rows)</t>
+  </si>
+  <si>
+    <t>number of properties is not limited, as long as they written here in a new column (Excel 2013 allows ‎16.384 ‎columns)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name of constant1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NEEDED!</t>
+    </r>
+  </si>
+  <si>
+    <t>Speciesname (as chemical equation)</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1349,7 @@
     <numFmt numFmtId="169" formatCode="0.000"/>
     <numFmt numFmtId="170" formatCode="#,##0;\-#,##0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1466,6 +1469,12 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1733,33 +1742,33 @@
     <cellStyle name="60% - Akzent4" xfId="16"/>
     <cellStyle name="60% - Akzent5" xfId="17"/>
     <cellStyle name="60% - Akzent6" xfId="18"/>
-    <cellStyle name="Besuchter Link" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Excel Built-in Normal" xfId="19"/>
     <cellStyle name="Link" xfId="20" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2125,7 +2134,7 @@
         </a:ln>
         <a:effectLst/>
         <a:extLst>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
@@ -2167,7 +2176,7 @@
         </a:ln>
         <a:effectLst/>
         <a:extLst>
-          <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
             <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
@@ -2185,7 +2194,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2193,109 +2202,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle1">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s">
         <v>353</v>
       </c>
       <c r="D1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" t="s">
         <v>354</v>
       </c>
-      <c r="E1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>352</v>
       </c>
       <c r="D2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>359</v>
       </c>
-      <c r="D3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>360</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52" t="s">
-        <v>340</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>341</v>
-      </c>
-      <c r="D7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="52" t="s">
-        <v>365</v>
-      </c>
       <c r="D8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>375</v>
+      </c>
+      <c r="E8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="str">
         <f>HYPERLINK("#'H2O'!A1","for an example refer worksheet H2O")</f>
         <v>for an example refer worksheet H2O</v>
@@ -2303,7 +2315,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2314,15 +2326,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle10"/>
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2416,7 +2429,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <f>10^5</f>
         <v>100000</v>
@@ -2475,7 +2488,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -2525,7 +2538,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>275</v>
       </c>
@@ -2572,7 +2585,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>280</v>
       </c>
@@ -2619,7 +2632,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>285</v>
       </c>
@@ -2666,7 +2679,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>290</v>
       </c>
@@ -2713,7 +2726,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>295</v>
       </c>
@@ -2760,7 +2773,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>300</v>
       </c>
@@ -2807,7 +2820,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>305</v>
       </c>
@@ -2854,7 +2867,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>310</v>
       </c>
@@ -2901,7 +2914,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>315</v>
       </c>
@@ -2948,7 +2961,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>320</v>
       </c>
@@ -2995,7 +3008,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>325</v>
       </c>
@@ -3042,7 +3055,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>330</v>
       </c>
@@ -3089,7 +3102,7 @@
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>335</v>
       </c>
@@ -3136,7 +3149,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>340</v>
       </c>
@@ -3183,7 +3196,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>345</v>
       </c>
@@ -3230,7 +3243,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>350</v>
       </c>
@@ -3277,7 +3290,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>355</v>
       </c>
@@ -3324,7 +3337,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>360</v>
       </c>
@@ -3371,7 +3384,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>365</v>
       </c>
@@ -3418,7 +3431,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>370</v>
       </c>
@@ -3465,7 +3478,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>373.15</v>
       </c>
@@ -3512,7 +3525,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>375</v>
       </c>
@@ -3559,7 +3572,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>380</v>
       </c>
@@ -3606,7 +3619,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>385</v>
       </c>
@@ -3653,7 +3666,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>390</v>
       </c>
@@ -3700,7 +3713,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>400</v>
       </c>
@@ -3747,7 +3760,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>410</v>
       </c>
@@ -3794,7 +3807,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>420</v>
       </c>
@@ -3841,7 +3854,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>430</v>
       </c>
@@ -3885,7 +3898,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>440</v>
       </c>
@@ -3929,7 +3942,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>450</v>
       </c>
@@ -3973,7 +3986,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>460</v>
       </c>
@@ -4017,7 +4030,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>470</v>
       </c>
@@ -4061,7 +4074,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>480</v>
       </c>
@@ -4105,7 +4118,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>490</v>
       </c>
@@ -4149,7 +4162,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>500</v>
       </c>
@@ -4193,7 +4206,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>510</v>
       </c>
@@ -4237,7 +4250,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>520</v>
       </c>
@@ -4281,7 +4294,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>530</v>
       </c>
@@ -4325,7 +4338,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>540</v>
       </c>
@@ -4369,7 +4382,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>550</v>
       </c>
@@ -4413,7 +4426,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>560</v>
       </c>
@@ -4457,7 +4470,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>570</v>
       </c>
@@ -4501,7 +4514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>580</v>
       </c>
@@ -4545,7 +4558,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>590</v>
       </c>
@@ -4589,7 +4602,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>600</v>
       </c>
@@ -4633,7 +4646,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>610</v>
       </c>
@@ -4677,7 +4690,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>620</v>
       </c>
@@ -4721,7 +4734,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>625</v>
       </c>
@@ -4765,7 +4778,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>630</v>
       </c>
@@ -4809,7 +4822,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>635</v>
       </c>
@@ -4853,7 +4866,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>640</v>
       </c>
@@ -4912,15 +4925,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle11"/>
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -4970,7 +4984,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5014,7 +5028,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
         <f>10^5</f>
         <v>100000</v>
@@ -5073,7 +5087,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.5</v>
       </c>
@@ -5123,7 +5137,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>275</v>
       </c>
@@ -5170,7 +5184,7 @@
         <v>75.3</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>280</v>
       </c>
@@ -5217,7 +5231,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>285</v>
       </c>
@@ -5264,7 +5278,7 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>290</v>
       </c>
@@ -5311,7 +5325,7 @@
         <v>73.7</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>295</v>
       </c>
@@ -5358,7 +5372,7 @@
         <v>72.2</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>300</v>
       </c>
@@ -5405,7 +5419,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>305</v>
       </c>
@@ -5452,7 +5466,7 @@
         <v>70.900000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>310</v>
       </c>
@@ -5499,7 +5513,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>315</v>
       </c>
@@ -5546,7 +5560,7 @@
         <v>69.2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>320</v>
       </c>
@@ -5593,7 +5607,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>325</v>
       </c>
@@ -5640,7 +5654,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>330</v>
       </c>
@@ -5687,7 +5701,7 @@
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>335</v>
       </c>
@@ -5734,7 +5748,7 @@
         <v>65.8</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>340</v>
       </c>
@@ -5781,7 +5795,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>345</v>
       </c>
@@ -5828,7 +5842,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>350</v>
       </c>
@@ -5875,7 +5889,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>355</v>
       </c>
@@ -5922,7 +5936,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>360</v>
       </c>
@@ -5969,7 +5983,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>365</v>
       </c>
@@ -6016,7 +6030,7 @@
         <v>60.5</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>370</v>
       </c>
@@ -6063,7 +6077,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>373.15</v>
       </c>
@@ -6110,7 +6124,7 @@
         <v>58.9</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>375</v>
       </c>
@@ -6157,7 +6171,7 @@
         <v>58.6</v>
       </c>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>380</v>
       </c>
@@ -6204,7 +6218,7 @@
         <v>57.6</v>
       </c>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>385</v>
       </c>
@@ -6251,7 +6265,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>390</v>
       </c>
@@ -6298,7 +6312,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>400</v>
       </c>
@@ -6345,7 +6359,7 @@
         <v>53.6</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>410</v>
       </c>
@@ -6392,7 +6406,7 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>420</v>
       </c>
@@ -6439,7 +6453,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="33" spans="2:16">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>430</v>
       </c>
@@ -6483,7 +6497,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="34" spans="2:16">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>440</v>
       </c>
@@ -6527,7 +6541,7 @@
         <v>45.1</v>
       </c>
     </row>
-    <row r="35" spans="2:16">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>450</v>
       </c>
@@ -6571,7 +6585,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="36" spans="2:16">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>460</v>
       </c>
@@ -6615,7 +6629,7 @@
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="37" spans="2:16">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>470</v>
       </c>
@@ -6659,7 +6673,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="38" spans="2:16">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>480</v>
       </c>
@@ -6703,7 +6717,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="39" spans="2:16">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>490</v>
       </c>
@@ -6747,7 +6761,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="40" spans="2:16">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>500</v>
       </c>
@@ -6791,7 +6805,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="41" spans="2:16">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>510</v>
       </c>
@@ -6835,7 +6849,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="42" spans="2:16">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>520</v>
       </c>
@@ -6879,7 +6893,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="43" spans="2:16">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>530</v>
       </c>
@@ -6923,7 +6937,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="44" spans="2:16">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>540</v>
       </c>
@@ -6967,7 +6981,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="45" spans="2:16">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>550</v>
       </c>
@@ -7011,7 +7025,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="46" spans="2:16">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>560</v>
       </c>
@@ -7055,7 +7069,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="47" spans="2:16">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>570</v>
       </c>
@@ -7099,7 +7113,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="2:16">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>580</v>
       </c>
@@ -7143,7 +7157,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>590</v>
       </c>
@@ -7187,7 +7201,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>600</v>
       </c>
@@ -7231,7 +7245,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>610</v>
       </c>
@@ -7275,7 +7289,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>620</v>
       </c>
@@ -7319,7 +7333,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>625</v>
       </c>
@@ -7363,7 +7377,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>630</v>
       </c>
@@ -7407,7 +7421,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>635</v>
       </c>
@@ -7451,7 +7465,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>640</v>
       </c>
@@ -7495,7 +7509,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="2:16">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>800</v>
       </c>
@@ -7539,7 +7553,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>1200</v>
       </c>
@@ -7583,7 +7597,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="59" spans="2:16">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>1400</v>
       </c>
@@ -7642,15 +7656,16 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle12"/>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>133</v>
       </c>
@@ -7663,27 +7678,27 @@
       <c r="H1" s="14"/>
       <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:10" ht="14" customHeight="1">
+    <row r="2" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>331</v>
       </c>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D4" s="15">
         <v>26.9815386</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1">
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
@@ -7706,7 +7721,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -7729,7 +7744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>340</v>
       </c>
@@ -7746,10 +7761,10 @@
         <v>332</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>B8-273.15</f>
         <v>-0.14999999999997726</v>
@@ -7773,7 +7788,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ref="A9:A14" si="0">B9-273.15</f>
         <v>99.850000000000023</v>
@@ -7797,7 +7812,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>199.85000000000002</v>
@@ -7821,7 +7836,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>299.85000000000002</v>
@@ -7845,7 +7860,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>399.85</v>
@@ -7869,7 +7884,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>499.85</v>
@@ -7893,7 +7908,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>599.85</v>
@@ -7917,23 +7932,23 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E17" s="1"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E19" s="5"/>
       <c r="F19" s="51"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -7944,7 +7959,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -7952,13 +7967,13 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="48"/>
     </row>
-    <row r="33" spans="5:5">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" s="13"/>
     </row>
   </sheetData>
@@ -7976,17 +7991,18 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle13"/>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B1" s="17">
         <v>14541</v>
@@ -7995,21 +8011,21 @@
       <c r="H1" s="14"/>
       <c r="J1" s="14"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D2" s="1"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D3" s="1"/>
       <c r="J3" s="15"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1">
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
@@ -8032,7 +8048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -8055,7 +8071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>340</v>
       </c>
@@ -8072,10 +8088,10 @@
         <v>332</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>B8-273.15</f>
         <v>19.850000000000023</v>
@@ -8093,7 +8109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ref="A9:A18" si="0">B9-273.15</f>
         <v>99.850000000000023</v>
@@ -8111,7 +8127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>199.85000000000002</v>
@@ -8129,7 +8145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>299.85000000000002</v>
@@ -8147,7 +8163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>399.85</v>
@@ -8165,7 +8181,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>499.85</v>
@@ -8183,7 +8199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>599.85</v>
@@ -8201,7 +8217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>699.85</v>
@@ -8219,7 +8235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>799.85</v>
@@ -8237,7 +8253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>899.85</v>
@@ -8255,7 +8271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>999.85</v>
@@ -8273,7 +8289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="5:5">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" s="13"/>
     </row>
   </sheetData>
@@ -8291,15 +8307,16 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle14"/>
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
@@ -8334,7 +8351,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="E2" s="13">
         <v>0</v>
       </c>
@@ -8354,7 +8371,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K3">
         <v>1000</v>
       </c>
@@ -8363,7 +8380,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -8389,7 +8406,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -8415,7 +8432,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -8441,7 +8458,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -8467,7 +8484,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -8493,7 +8510,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -8519,7 +8536,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -8545,7 +8562,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -8571,7 +8588,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -8597,7 +8614,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>84</v>
       </c>
@@ -8623,7 +8640,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -8649,7 +8666,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -8675,7 +8692,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -8701,7 +8718,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -8727,7 +8744,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -8753,7 +8770,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -8779,7 +8796,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -8805,7 +8822,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -8831,7 +8848,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -8857,7 +8874,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -8883,7 +8900,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -8909,7 +8926,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -8935,7 +8952,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -8961,7 +8978,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -8987,7 +9004,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -9013,7 +9030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -9039,7 +9056,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>100</v>
       </c>
@@ -9065,7 +9082,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -9091,7 +9108,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -9117,7 +9134,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -9143,7 +9160,7 @@
         <v>5190</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -9169,14 +9186,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="52" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -9194,24 +9211,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle2">
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="40" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="34"/>
-    <col min="4" max="4" width="13.83203125" style="33" customWidth="1"/>
-    <col min="5" max="8" width="16.6640625" style="33" customWidth="1"/>
-    <col min="9" max="10" width="10.83203125" style="33"/>
+    <col min="2" max="2" width="32.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="34"/>
+    <col min="4" max="4" width="13.85546875" style="33" customWidth="1"/>
+    <col min="5" max="8" width="16.7109375" style="33" customWidth="1"/>
+    <col min="9" max="10" width="10.85546875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="37" customFormat="1" ht="15">
+    <row r="1" spans="1:12" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>22</v>
       </c>
@@ -9243,7 +9263,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="46" customFormat="1" ht="15">
+    <row r="2" spans="1:12" s="46" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="44" t="s">
         <v>329</v>
       </c>
@@ -9273,13 +9293,10 @@
         <v>337</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="L2" s="46" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>31</v>
       </c>
@@ -9303,7 +9320,7 @@
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>32</v>
       </c>
@@ -9329,7 +9346,7 @@
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>32</v>
       </c>
@@ -9353,7 +9370,7 @@
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>33</v>
       </c>
@@ -9375,7 +9392,7 @@
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>34</v>
       </c>
@@ -9401,7 +9418,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>35</v>
       </c>
@@ -9419,7 +9436,7 @@
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>36</v>
       </c>
@@ -9437,7 +9454,7 @@
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>37</v>
       </c>
@@ -9463,7 +9480,7 @@
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="39" t="s">
         <v>38</v>
       </c>
@@ -9484,7 +9501,7 @@
       <c r="J11" s="25"/>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
         <v>39</v>
       </c>
@@ -9503,7 +9520,7 @@
       <c r="J12" s="25"/>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="39" t="s">
         <v>40</v>
       </c>
@@ -9527,7 +9544,7 @@
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="39" t="s">
         <v>41</v>
       </c>
@@ -9551,7 +9568,7 @@
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
         <v>30</v>
       </c>
@@ -9575,13 +9592,12 @@
         <v>8.9899999999999994E-2</v>
       </c>
       <c r="H15" s="41">
-        <f>2*H24</f>
-        <v>1418</v>
+        <v>14304</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
         <v>30</v>
       </c>
@@ -9597,13 +9613,12 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="41">
-        <f>2*H25</f>
-        <v>10386</v>
+        <v>14304</v>
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
@@ -9630,7 +9645,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="39" t="s">
         <v>28</v>
       </c>
@@ -9657,7 +9672,7 @@
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
         <v>29</v>
       </c>
@@ -9681,7 +9696,7 @@
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
         <v>29</v>
       </c>
@@ -9705,7 +9720,7 @@
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="39" t="s">
         <v>338</v>
       </c>
@@ -9728,7 +9743,7 @@
       <c r="I21" s="25"/>
       <c r="J21" s="25"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="39" t="s">
         <v>339</v>
       </c>
@@ -9748,7 +9763,7 @@
       <c r="I22" s="25"/>
       <c r="J22" s="25"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="39" t="s">
         <v>339</v>
       </c>
@@ -9776,7 +9791,7 @@
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="39" t="s">
         <v>106</v>
       </c>
@@ -9806,7 +9821,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="39" t="s">
         <v>112</v>
       </c>
@@ -9837,7 +9852,7 @@
       </c>
       <c r="L25" s="38"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="39" t="s">
         <v>114</v>
       </c>
@@ -9870,7 +9885,7 @@
       </c>
       <c r="L26" s="38"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="39" t="s">
         <v>116</v>
       </c>
@@ -9902,7 +9917,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="39" t="s">
         <v>118</v>
       </c>
@@ -9932,7 +9947,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="39" t="s">
         <v>14</v>
       </c>
@@ -9964,7 +9979,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="39" t="s">
         <v>14</v>
       </c>
@@ -9990,7 +10005,7 @@
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
         <v>121</v>
       </c>
@@ -10020,7 +10035,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="s">
         <v>123</v>
       </c>
@@ -10049,7 +10064,7 @@
       <c r="J32" s="25"/>
       <c r="L32" s="15"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="s">
         <v>125</v>
       </c>
@@ -10077,7 +10092,7 @@
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="39" t="s">
         <v>127</v>
       </c>
@@ -10107,7 +10122,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="s">
         <v>129</v>
       </c>
@@ -10139,7 +10154,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="s">
         <v>131</v>
       </c>
@@ -10171,7 +10186,7 @@
         <v>3.54</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="39" t="s">
         <v>133</v>
       </c>
@@ -10203,7 +10218,7 @@
         <v>7.22</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="39" t="s">
         <v>135</v>
       </c>
@@ -10235,7 +10250,7 @@
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="s">
         <v>109</v>
       </c>
@@ -10267,7 +10282,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
         <v>108</v>
       </c>
@@ -10299,7 +10314,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="s">
         <v>139</v>
       </c>
@@ -10327,7 +10342,7 @@
       <c r="I41" s="25"/>
       <c r="J41" s="25"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
         <v>141</v>
       </c>
@@ -10357,7 +10372,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="s">
         <v>15</v>
       </c>
@@ -10389,7 +10404,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="s">
         <v>144</v>
       </c>
@@ -10421,7 +10436,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
         <v>146</v>
       </c>
@@ -10451,7 +10466,7 @@
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="s">
         <v>148</v>
       </c>
@@ -10483,7 +10498,7 @@
         <v>10.51</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="39" t="s">
         <v>150</v>
       </c>
@@ -10513,7 +10528,7 @@
         <v>16.190000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="39" t="s">
         <v>152</v>
       </c>
@@ -10545,7 +10560,7 @@
         <v>19.010000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="39" t="s">
         <v>154</v>
       </c>
@@ -10577,7 +10592,7 @@
         <v>5.96</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="39" t="s">
         <v>156</v>
       </c>
@@ -10609,7 +10624,7 @@
         <v>16.829999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="39" t="s">
         <v>158</v>
       </c>
@@ -10641,7 +10656,7 @@
         <v>19.14</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="39" t="s">
         <v>160</v>
       </c>
@@ -10673,7 +10688,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="39" t="s">
         <v>162</v>
       </c>
@@ -10705,7 +10720,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="39" t="s">
         <v>164</v>
       </c>
@@ -10737,7 +10752,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="39" t="s">
         <v>166</v>
       </c>
@@ -10769,7 +10784,7 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="39" t="s">
         <v>168</v>
       </c>
@@ -10801,7 +10816,7 @@
         <v>7.72</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="39" t="s">
         <v>170</v>
       </c>
@@ -10831,7 +10846,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="39" t="s">
         <v>172</v>
       </c>
@@ -10863,7 +10878,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="39" t="s">
         <v>174</v>
       </c>
@@ -10891,7 +10906,7 @@
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="39" t="s">
         <v>176</v>
       </c>
@@ -10921,7 +10936,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="39" t="s">
         <v>178</v>
       </c>
@@ -10953,7 +10968,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="39" t="s">
         <v>180</v>
       </c>
@@ -10983,7 +10998,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="39" t="s">
         <v>182</v>
       </c>
@@ -11013,7 +11028,7 @@
         <v>3.66</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="39" t="s">
         <v>184</v>
       </c>
@@ -11045,7 +11060,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="39" t="s">
         <v>186</v>
       </c>
@@ -11077,7 +11092,7 @@
         <v>17.02</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="39" t="s">
         <v>188</v>
       </c>
@@ -11107,7 +11122,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="39" t="s">
         <v>190</v>
       </c>
@@ -11137,7 +11152,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="39" t="s">
         <v>192</v>
       </c>
@@ -11169,7 +11184,7 @@
         <v>32.08</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="39" t="s">
         <v>194</v>
       </c>
@@ -11201,7 +11216,7 @@
         <v>27.04</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="39" t="s">
         <v>196</v>
       </c>
@@ -11233,7 +11248,7 @@
         <v>18.079999999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="s">
         <v>198</v>
       </c>
@@ -11265,7 +11280,7 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="s">
         <v>200</v>
       </c>
@@ -11297,7 +11312,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="39" t="s">
         <v>202</v>
       </c>
@@ -11329,7 +11344,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="39" t="s">
         <v>204</v>
       </c>
@@ -11361,7 +11376,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="39" t="s">
         <v>206</v>
       </c>
@@ -11393,7 +11408,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="39" t="s">
         <v>208</v>
       </c>
@@ -11425,7 +11440,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="39" t="s">
         <v>110</v>
       </c>
@@ -11455,7 +11470,7 @@
       </c>
       <c r="J77" s="25"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="39" t="s">
         <v>211</v>
       </c>
@@ -11483,7 +11498,7 @@
       <c r="I78" s="25"/>
       <c r="J78" s="25"/>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="39" t="s">
         <v>213</v>
       </c>
@@ -11515,7 +11530,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="39" t="s">
         <v>215</v>
       </c>
@@ -11543,7 +11558,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="39" t="s">
         <v>217</v>
       </c>
@@ -11571,7 +11586,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="39" t="s">
         <v>219</v>
       </c>
@@ -11599,7 +11614,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="39" t="s">
         <v>13</v>
       </c>
@@ -11627,7 +11642,7 @@
         <v>3.06</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="39" t="s">
         <v>222</v>
       </c>
@@ -11655,7 +11670,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="39" t="s">
         <v>224</v>
       </c>
@@ -11683,7 +11698,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="39" t="s">
         <v>226</v>
       </c>
@@ -11711,7 +11726,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="39" t="s">
         <v>228</v>
       </c>
@@ -11739,7 +11754,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="39" t="s">
         <v>230</v>
       </c>
@@ -11767,7 +11782,7 @@
         <v>3.83</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="39" t="s">
         <v>232</v>
       </c>
@@ -11795,7 +11810,7 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="39" t="s">
         <v>234</v>
       </c>
@@ -11823,7 +11838,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="39" t="s">
         <v>236</v>
       </c>
@@ -11851,7 +11866,7 @@
       </c>
       <c r="J91" s="25"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="39" t="s">
         <v>238</v>
       </c>
@@ -11879,7 +11894,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="39" t="s">
         <v>240</v>
       </c>
@@ -11907,7 +11922,7 @@
         <v>3.97</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="39" t="s">
         <v>242</v>
       </c>
@@ -11935,7 +11950,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="39" t="s">
         <v>244</v>
       </c>
@@ -11963,7 +11978,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="39" t="s">
         <v>246</v>
       </c>
@@ -11991,7 +12006,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="39" t="s">
         <v>248</v>
       </c>
@@ -12021,7 +12036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="39" t="s">
         <v>250</v>
       </c>
@@ -12051,7 +12066,7 @@
         <v>32.32</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="39" t="s">
         <v>252</v>
       </c>
@@ -12079,7 +12094,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="39" t="s">
         <v>254</v>
       </c>
@@ -12109,7 +12124,7 @@
         <v>41.8</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="39" t="s">
         <v>256</v>
       </c>
@@ -12139,7 +12154,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" s="39" t="s">
         <v>258</v>
       </c>
@@ -12171,7 +12186,7 @@
         <v>27.83</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="39" t="s">
         <v>260</v>
       </c>
@@ -12203,7 +12218,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="39" t="s">
         <v>262</v>
       </c>
@@ -12231,7 +12246,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="39" t="s">
         <v>264</v>
       </c>
@@ -12261,7 +12276,7 @@
         <v>3.53</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="39" t="s">
         <v>266</v>
       </c>
@@ -12293,7 +12308,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" s="39" t="s">
         <v>268</v>
       </c>
@@ -12323,7 +12338,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" s="39" t="s">
         <v>270</v>
       </c>
@@ -12351,7 +12366,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="39" t="s">
         <v>272</v>
       </c>
@@ -12375,7 +12390,7 @@
       <c r="I109" s="25"/>
       <c r="J109" s="25"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="39" t="s">
         <v>274</v>
       </c>
@@ -12403,7 +12418,7 @@
       <c r="I110" s="25"/>
       <c r="J110" s="25"/>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="39" t="s">
         <v>276</v>
       </c>
@@ -12429,7 +12444,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="39" t="s">
         <v>278</v>
       </c>
@@ -12457,7 +12472,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="39" t="s">
         <v>280</v>
       </c>
@@ -12485,7 +12500,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="39" t="s">
         <v>282</v>
       </c>
@@ -12515,7 +12530,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="39" t="s">
         <v>284</v>
       </c>
@@ -12543,7 +12558,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="39" t="s">
         <v>286</v>
       </c>
@@ -12571,7 +12586,7 @@
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="39" t="s">
         <v>288</v>
       </c>
@@ -12599,7 +12614,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="39" t="s">
         <v>290</v>
       </c>
@@ -12627,7 +12642,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="39" t="s">
         <v>292</v>
       </c>
@@ -12653,7 +12668,7 @@
       <c r="I119" s="25"/>
       <c r="J119" s="25"/>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="39" t="s">
         <v>294</v>
       </c>
@@ -12679,7 +12694,7 @@
       <c r="I120" s="25"/>
       <c r="J120" s="25"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="39" t="s">
         <v>296</v>
       </c>
@@ -12705,7 +12720,7 @@
       <c r="I121" s="25"/>
       <c r="J121" s="25"/>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="39" t="s">
         <v>298</v>
       </c>
@@ -12731,7 +12746,7 @@
       <c r="I122" s="25"/>
       <c r="J122" s="25"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="39" t="s">
         <v>300</v>
       </c>
@@ -12751,7 +12766,7 @@
       <c r="I123" s="25"/>
       <c r="J123" s="25"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="39" t="s">
         <v>302</v>
       </c>
@@ -12771,7 +12786,7 @@
       <c r="I124" s="25"/>
       <c r="J124" s="25"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="39" t="s">
         <v>304</v>
       </c>
@@ -12791,7 +12806,7 @@
       <c r="I125" s="25"/>
       <c r="J125" s="25"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="39" t="s">
         <v>306</v>
       </c>
@@ -12811,7 +12826,7 @@
       <c r="I126" s="25"/>
       <c r="J126" s="25"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="39" t="s">
         <v>308</v>
       </c>
@@ -12831,7 +12846,7 @@
       <c r="I127" s="25"/>
       <c r="J127" s="25"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="39" t="s">
         <v>310</v>
       </c>
@@ -12851,7 +12866,7 @@
       <c r="I128" s="25"/>
       <c r="J128" s="25"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" s="39" t="s">
         <v>312</v>
       </c>
@@ -12871,7 +12886,7 @@
       <c r="I129" s="25"/>
       <c r="J129" s="25"/>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="39" t="s">
         <v>314</v>
       </c>
@@ -12891,7 +12906,7 @@
       <c r="I130" s="25"/>
       <c r="J130" s="25"/>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" s="39" t="s">
         <v>316</v>
       </c>
@@ -12911,7 +12926,7 @@
       <c r="I131" s="25"/>
       <c r="J131" s="25"/>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="39" t="s">
         <v>318</v>
       </c>
@@ -12931,7 +12946,7 @@
       <c r="I132" s="25"/>
       <c r="J132" s="25"/>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="39" t="s">
         <v>320</v>
       </c>
@@ -12967,16 +12982,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle3">
+    <tabColor theme="4" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:L554"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -12999,7 +13017,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="55" t="s">
         <v>2</v>
       </c>
@@ -13020,7 +13038,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
@@ -13039,7 +13057,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -13059,7 +13077,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -13097,7 +13115,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -13135,7 +13153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12" customHeight="1">
+    <row r="7" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>340</v>
@@ -13171,7 +13189,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>0</v>
       </c>
@@ -13205,7 +13223,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -13239,7 +13257,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>2</v>
       </c>
@@ -13273,7 +13291,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>3</v>
       </c>
@@ -13307,7 +13325,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -13341,7 +13359,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>5</v>
       </c>
@@ -13375,7 +13393,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="7">
         <v>6</v>
       </c>
@@ -13409,7 +13427,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>7</v>
       </c>
@@ -13443,7 +13461,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>8</v>
       </c>
@@ -13477,7 +13495,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>9</v>
       </c>
@@ -13511,7 +13529,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>10</v>
       </c>
@@ -13545,7 +13563,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>11</v>
       </c>
@@ -13579,7 +13597,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>12</v>
       </c>
@@ -13613,7 +13631,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>13</v>
       </c>
@@ -13647,7 +13665,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>14</v>
       </c>
@@ -13681,7 +13699,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>15</v>
       </c>
@@ -13715,7 +13733,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>16</v>
       </c>
@@ -13749,7 +13767,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>17</v>
       </c>
@@ -13783,7 +13801,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>18</v>
       </c>
@@ -13817,7 +13835,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>19</v>
       </c>
@@ -13851,7 +13869,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>20</v>
       </c>
@@ -13885,7 +13903,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>22</v>
       </c>
@@ -13919,7 +13937,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>24</v>
       </c>
@@ -13953,7 +13971,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>25</v>
       </c>
@@ -13987,7 +14005,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -14021,7 +14039,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>28</v>
       </c>
@@ -14055,7 +14073,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>30</v>
       </c>
@@ -14089,7 +14107,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>32</v>
       </c>
@@ -14123,7 +14141,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>34</v>
       </c>
@@ -14157,7 +14175,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>36</v>
       </c>
@@ -14191,7 +14209,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>38</v>
       </c>
@@ -14225,7 +14243,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>40</v>
       </c>
@@ -14259,7 +14277,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>42</v>
       </c>
@@ -14293,7 +14311,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>44</v>
       </c>
@@ -14327,7 +14345,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>46</v>
       </c>
@@ -14361,7 +14379,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>48</v>
       </c>
@@ -14395,7 +14413,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>50</v>
       </c>
@@ -14429,7 +14447,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>55</v>
       </c>
@@ -14463,7 +14481,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>60</v>
       </c>
@@ -14497,7 +14515,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>65</v>
       </c>
@@ -14531,7 +14549,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>70</v>
       </c>
@@ -14565,7 +14583,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>75</v>
       </c>
@@ -14599,7 +14617,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>80</v>
       </c>
@@ -14633,7 +14651,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>85</v>
       </c>
@@ -14667,7 +14685,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>90</v>
       </c>
@@ -14701,7 +14719,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>95</v>
       </c>
@@ -14735,7 +14753,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>99.605999999999995</v>
       </c>
@@ -14769,7 +14787,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>0</v>
       </c>
@@ -14799,7 +14817,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>0</v>
       </c>
@@ -14829,7 +14847,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>0</v>
       </c>
@@ -14859,7 +14877,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>0</v>
       </c>
@@ -14889,7 +14907,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>0</v>
       </c>
@@ -14919,7 +14937,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>0</v>
       </c>
@@ -14949,7 +14967,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>0</v>
       </c>
@@ -14979,7 +14997,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>0</v>
       </c>
@@ -15009,7 +15027,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>0</v>
       </c>
@@ -15039,7 +15057,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="12">
         <v>0</v>
       </c>
@@ -15069,7 +15087,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>0</v>
       </c>
@@ -15099,7 +15117,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>0</v>
       </c>
@@ -15129,7 +15147,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>0</v>
       </c>
@@ -15159,7 +15177,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>0</v>
       </c>
@@ -15189,7 +15207,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>0</v>
       </c>
@@ -15219,7 +15237,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>0</v>
       </c>
@@ -15249,7 +15267,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>0</v>
       </c>
@@ -15279,7 +15297,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>0</v>
       </c>
@@ -15309,7 +15327,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>0</v>
       </c>
@@ -15339,7 +15357,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>0</v>
       </c>
@@ -15369,7 +15387,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>0</v>
       </c>
@@ -15399,7 +15417,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>0</v>
       </c>
@@ -15429,7 +15447,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>0</v>
       </c>
@@ -15459,7 +15477,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>0</v>
       </c>
@@ -15489,7 +15507,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>0</v>
       </c>
@@ -15519,7 +15537,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>25</v>
       </c>
@@ -15549,7 +15567,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>25</v>
       </c>
@@ -15579,7 +15597,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>25</v>
       </c>
@@ -15609,7 +15627,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>25</v>
       </c>
@@ -15639,7 +15657,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>25</v>
       </c>
@@ -15669,7 +15687,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>25</v>
       </c>
@@ -15699,7 +15717,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="12">
         <v>25</v>
       </c>
@@ -15729,7 +15747,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>25</v>
       </c>
@@ -15759,7 +15777,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="12">
         <v>25</v>
       </c>
@@ -15789,7 +15807,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>25</v>
       </c>
@@ -15819,7 +15837,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="12">
         <v>25</v>
       </c>
@@ -15849,7 +15867,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>25</v>
       </c>
@@ -15879,7 +15897,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="12">
         <v>25</v>
       </c>
@@ -15909,7 +15927,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>25</v>
       </c>
@@ -15939,7 +15957,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="12">
         <v>25</v>
       </c>
@@ -15969,7 +15987,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="12">
         <v>25</v>
       </c>
@@ -15999,7 +16017,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="12">
         <v>25</v>
       </c>
@@ -16029,7 +16047,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="12">
         <v>25</v>
       </c>
@@ -16059,7 +16077,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="12">
         <v>25</v>
       </c>
@@ -16089,7 +16107,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="12">
         <v>25</v>
       </c>
@@ -16119,7 +16137,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="12">
         <v>25</v>
       </c>
@@ -16149,7 +16167,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="12">
         <v>25</v>
       </c>
@@ -16179,7 +16197,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="12">
         <v>25</v>
       </c>
@@ -16209,7 +16227,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
         <v>25</v>
       </c>
@@ -16239,7 +16257,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="12">
         <v>25</v>
       </c>
@@ -16269,7 +16287,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="12">
         <v>50</v>
       </c>
@@ -16299,7 +16317,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="12">
         <v>50</v>
       </c>
@@ -16329,7 +16347,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="12">
         <v>50</v>
       </c>
@@ -16359,7 +16377,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="12">
         <v>50</v>
       </c>
@@ -16389,7 +16407,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="12">
         <v>50</v>
       </c>
@@ -16419,7 +16437,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="12">
         <v>50</v>
       </c>
@@ -16449,7 +16467,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="12">
         <v>50</v>
       </c>
@@ -16479,7 +16497,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="12">
         <v>50</v>
       </c>
@@ -16509,7 +16527,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="12">
         <v>50</v>
       </c>
@@ -16539,7 +16557,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="12">
         <v>50</v>
       </c>
@@ -16569,7 +16587,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="12">
         <v>50</v>
       </c>
@@ -16599,7 +16617,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="12">
         <v>50</v>
       </c>
@@ -16629,7 +16647,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="12">
         <v>50</v>
       </c>
@@ -16659,7 +16677,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="12">
         <v>50</v>
       </c>
@@ -16689,7 +16707,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="12">
         <v>50</v>
       </c>
@@ -16719,7 +16737,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="12">
         <v>50</v>
       </c>
@@ -16749,7 +16767,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="12">
         <v>50</v>
       </c>
@@ -16779,7 +16797,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="12">
         <v>50</v>
       </c>
@@ -16809,7 +16827,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="12">
         <v>50</v>
       </c>
@@ -16839,7 +16857,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="12">
         <v>50</v>
       </c>
@@ -16869,7 +16887,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="12">
         <v>50</v>
       </c>
@@ -16899,7 +16917,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="12">
         <v>50</v>
       </c>
@@ -16929,7 +16947,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="12">
         <v>50</v>
       </c>
@@ -16959,7 +16977,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="12">
         <v>50</v>
       </c>
@@ -16989,7 +17007,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="12">
         <v>50</v>
       </c>
@@ -17019,7 +17037,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="12">
         <v>75</v>
       </c>
@@ -17049,7 +17067,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>75</v>
       </c>
@@ -17079,7 +17097,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="12">
         <v>75</v>
       </c>
@@ -17109,7 +17127,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="12">
         <v>75</v>
       </c>
@@ -17139,7 +17157,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="12">
         <v>75</v>
       </c>
@@ -17169,7 +17187,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="12">
         <v>75</v>
       </c>
@@ -17199,7 +17217,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="12">
         <v>75</v>
       </c>
@@ -17229,7 +17247,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="12">
         <v>75</v>
       </c>
@@ -17259,7 +17277,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="12">
         <v>75</v>
       </c>
@@ -17289,7 +17307,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="12">
         <v>75</v>
       </c>
@@ -17319,7 +17337,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="12">
         <v>75</v>
       </c>
@@ -17349,7 +17367,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="12">
         <v>75</v>
       </c>
@@ -17379,7 +17397,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="12">
         <v>75</v>
       </c>
@@ -17409,7 +17427,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
         <v>75</v>
       </c>
@@ -17439,7 +17457,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="12">
         <v>75</v>
       </c>
@@ -17469,7 +17487,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>75</v>
       </c>
@@ -17499,7 +17517,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="12">
         <v>75</v>
       </c>
@@ -17529,7 +17547,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="12">
         <v>75</v>
       </c>
@@ -17559,7 +17577,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
         <v>75</v>
       </c>
@@ -17589,7 +17607,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>75</v>
       </c>
@@ -17619,7 +17637,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
         <v>75</v>
       </c>
@@ -17649,7 +17667,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="12">
         <v>75</v>
       </c>
@@ -17679,7 +17697,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="12">
         <v>75</v>
       </c>
@@ -17709,7 +17727,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="12">
         <v>75</v>
       </c>
@@ -17739,7 +17757,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="12">
         <v>75</v>
       </c>
@@ -17769,7 +17787,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
         <v>100</v>
       </c>
@@ -17799,7 +17817,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
         <v>100</v>
       </c>
@@ -17829,7 +17847,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>100</v>
       </c>
@@ -17859,7 +17877,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="12">
         <v>100</v>
       </c>
@@ -17889,7 +17907,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="12">
         <v>100</v>
       </c>
@@ -17919,7 +17937,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="12">
         <v>100</v>
       </c>
@@ -17949,7 +17967,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="12">
         <v>100</v>
       </c>
@@ -17979,7 +17997,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="12">
         <v>100</v>
       </c>
@@ -18009,7 +18027,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="12">
         <v>100</v>
       </c>
@@ -18039,7 +18057,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="12">
         <v>100</v>
       </c>
@@ -18069,7 +18087,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="12">
         <v>100</v>
       </c>
@@ -18099,7 +18117,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="12">
         <v>100</v>
       </c>
@@ -18129,7 +18147,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>100</v>
       </c>
@@ -18159,7 +18177,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="12">
         <v>100</v>
       </c>
@@ -18189,7 +18207,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>100</v>
       </c>
@@ -18219,7 +18237,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="12">
         <v>100</v>
       </c>
@@ -18249,7 +18267,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="12">
         <v>100</v>
       </c>
@@ -18279,7 +18297,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="12">
         <v>100</v>
       </c>
@@ -18309,7 +18327,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="12">
         <v>100</v>
       </c>
@@ -18339,7 +18357,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="12">
         <v>100</v>
       </c>
@@ -18369,7 +18387,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="12">
         <v>100</v>
       </c>
@@ -18399,7 +18417,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="12">
         <v>100</v>
       </c>
@@ -18429,7 +18447,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="12">
         <v>100</v>
       </c>
@@ -18459,7 +18477,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="12">
         <v>100</v>
       </c>
@@ -18489,7 +18507,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="12">
         <v>100</v>
       </c>
@@ -18519,7 +18537,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="12">
         <v>125</v>
       </c>
@@ -18549,7 +18567,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="12">
         <v>125</v>
       </c>
@@ -18579,7 +18597,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="12">
         <v>125</v>
       </c>
@@ -18609,7 +18627,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="12">
         <v>125</v>
       </c>
@@ -18639,7 +18657,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="12">
         <v>125</v>
       </c>
@@ -18669,7 +18687,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="12">
         <v>125</v>
       </c>
@@ -18699,7 +18717,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="12">
         <v>125</v>
       </c>
@@ -18729,7 +18747,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="12">
         <v>125</v>
       </c>
@@ -18759,7 +18777,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="12">
         <v>125</v>
       </c>
@@ -18789,7 +18807,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="12">
         <v>125</v>
       </c>
@@ -18819,7 +18837,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="12">
         <v>125</v>
       </c>
@@ -18849,7 +18867,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="12">
         <v>125</v>
       </c>
@@ -18879,7 +18897,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="12">
         <v>125</v>
       </c>
@@ -18909,7 +18927,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="12">
         <v>125</v>
       </c>
@@ -18939,7 +18957,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="12">
         <v>125</v>
       </c>
@@ -18969,7 +18987,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="12">
         <v>125</v>
       </c>
@@ -18999,7 +19017,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="12">
         <v>125</v>
       </c>
@@ -19029,7 +19047,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="12">
         <v>125</v>
       </c>
@@ -19059,7 +19077,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="12">
         <v>125</v>
       </c>
@@ -19089,7 +19107,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="12">
         <v>125</v>
       </c>
@@ -19119,7 +19137,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="12">
         <v>125</v>
       </c>
@@ -19149,7 +19167,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="12">
         <v>125</v>
       </c>
@@ -19179,7 +19197,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="12">
         <v>125</v>
       </c>
@@ -19209,7 +19227,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="12">
         <v>125</v>
       </c>
@@ -19239,7 +19257,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="12">
         <v>125</v>
       </c>
@@ -19269,7 +19287,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="12">
         <v>150</v>
       </c>
@@ -19299,7 +19317,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="12">
         <v>150</v>
       </c>
@@ -19329,7 +19347,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="12">
         <v>150</v>
       </c>
@@ -19359,7 +19377,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="12">
         <v>150</v>
       </c>
@@ -19389,7 +19407,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="12">
         <v>150</v>
       </c>
@@ -19419,7 +19437,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="12">
         <v>150</v>
       </c>
@@ -19449,7 +19467,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="12">
         <v>150</v>
       </c>
@@ -19479,7 +19497,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="12">
         <v>150</v>
       </c>
@@ -19509,7 +19527,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="12">
         <v>150</v>
       </c>
@@ -19539,7 +19557,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="12">
         <v>150</v>
       </c>
@@ -19569,7 +19587,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="12">
         <v>150</v>
       </c>
@@ -19599,7 +19617,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="12">
         <v>150</v>
       </c>
@@ -19629,7 +19647,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="12">
         <v>150</v>
       </c>
@@ -19659,7 +19677,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="12">
         <v>150</v>
       </c>
@@ -19689,7 +19707,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="12">
         <v>150</v>
       </c>
@@ -19719,7 +19737,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="12">
         <v>150</v>
       </c>
@@ -19749,7 +19767,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="12">
         <v>150</v>
       </c>
@@ -19779,7 +19797,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="12">
         <v>150</v>
       </c>
@@ -19809,7 +19827,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="12">
         <v>150</v>
       </c>
@@ -19839,7 +19857,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="12">
         <v>150</v>
       </c>
@@ -19869,7 +19887,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="12">
         <v>150</v>
       </c>
@@ -19899,7 +19917,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="12">
         <v>150</v>
       </c>
@@ -19929,7 +19947,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="12">
         <v>150</v>
       </c>
@@ -19959,7 +19977,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="12">
         <v>150</v>
       </c>
@@ -19989,7 +20007,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="12">
         <v>150</v>
       </c>
@@ -20019,7 +20037,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="12">
         <v>200</v>
       </c>
@@ -20049,7 +20067,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="12">
         <v>200</v>
       </c>
@@ -20079,7 +20097,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="12">
         <v>200</v>
       </c>
@@ -20109,7 +20127,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="12">
         <v>200</v>
       </c>
@@ -20139,7 +20157,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="12">
         <v>200</v>
       </c>
@@ -20169,7 +20187,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="12">
         <v>200</v>
       </c>
@@ -20199,7 +20217,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="12">
         <v>200</v>
       </c>
@@ -20229,7 +20247,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="12">
         <v>200</v>
       </c>
@@ -20259,7 +20277,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="12">
         <v>200</v>
       </c>
@@ -20289,7 +20307,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="12">
         <v>200</v>
       </c>
@@ -20319,7 +20337,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="12">
         <v>200</v>
       </c>
@@ -20349,7 +20367,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="12">
         <v>200</v>
       </c>
@@ -20379,7 +20397,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="12">
         <v>200</v>
       </c>
@@ -20409,7 +20427,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="12">
         <v>200</v>
       </c>
@@ -20439,7 +20457,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="12">
         <v>200</v>
       </c>
@@ -20469,7 +20487,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="12">
         <v>200</v>
       </c>
@@ -20499,7 +20517,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="12">
         <v>200</v>
       </c>
@@ -20529,7 +20547,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="12">
         <v>200</v>
       </c>
@@ -20559,7 +20577,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="12">
         <v>200</v>
       </c>
@@ -20589,7 +20607,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="12">
         <v>200</v>
       </c>
@@ -20619,7 +20637,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="12">
         <v>200</v>
       </c>
@@ -20649,7 +20667,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="12">
         <v>200</v>
       </c>
@@ -20679,7 +20697,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="12">
         <v>200</v>
       </c>
@@ -20709,7 +20727,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="12">
         <v>200</v>
       </c>
@@ -20739,7 +20757,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="12">
         <v>200</v>
       </c>
@@ -20769,7 +20787,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="12">
         <v>250</v>
       </c>
@@ -20799,7 +20817,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="12">
         <v>250</v>
       </c>
@@ -20829,7 +20847,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="12">
         <v>250</v>
       </c>
@@ -20859,7 +20877,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="12">
         <v>250</v>
       </c>
@@ -20889,7 +20907,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="12">
         <v>250</v>
       </c>
@@ -20919,7 +20937,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="12">
         <v>250</v>
       </c>
@@ -20949,7 +20967,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="12">
         <v>250</v>
       </c>
@@ -20979,7 +20997,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="12">
         <v>250</v>
       </c>
@@ -21009,7 +21027,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="12">
         <v>250</v>
       </c>
@@ -21039,7 +21057,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="12">
         <v>250</v>
       </c>
@@ -21069,7 +21087,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="12">
         <v>250</v>
       </c>
@@ -21099,7 +21117,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="12">
         <v>250</v>
       </c>
@@ -21129,7 +21147,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="12">
         <v>250</v>
       </c>
@@ -21159,7 +21177,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="12">
         <v>250</v>
       </c>
@@ -21189,7 +21207,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="12">
         <v>250</v>
       </c>
@@ -21219,7 +21237,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="12">
         <v>250</v>
       </c>
@@ -21249,7 +21267,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="12">
         <v>250</v>
       </c>
@@ -21279,7 +21297,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="12">
         <v>250</v>
       </c>
@@ -21309,7 +21327,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="12">
         <v>250</v>
       </c>
@@ -21339,7 +21357,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="12">
         <v>250</v>
       </c>
@@ -21369,7 +21387,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="12">
         <v>250</v>
       </c>
@@ -21399,7 +21417,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="12">
         <v>250</v>
       </c>
@@ -21429,7 +21447,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="12">
         <v>250</v>
       </c>
@@ -21459,7 +21477,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="12">
         <v>250</v>
       </c>
@@ -21489,7 +21507,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="12">
         <v>250</v>
       </c>
@@ -21519,7 +21537,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="12">
         <v>300</v>
       </c>
@@ -21549,7 +21567,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="12">
         <v>300</v>
       </c>
@@ -21579,7 +21597,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="12">
         <v>300</v>
       </c>
@@ -21609,7 +21627,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="12">
         <v>300</v>
       </c>
@@ -21639,7 +21657,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="12">
         <v>300</v>
       </c>
@@ -21669,7 +21687,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="12">
         <v>300</v>
       </c>
@@ -21699,7 +21717,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="12">
         <v>300</v>
       </c>
@@ -21729,7 +21747,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="12">
         <v>300</v>
       </c>
@@ -21759,7 +21777,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="12">
         <v>300</v>
       </c>
@@ -21789,7 +21807,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="12">
         <v>300</v>
       </c>
@@ -21819,7 +21837,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="12">
         <v>300</v>
       </c>
@@ -21849,7 +21867,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="12">
         <v>300</v>
       </c>
@@ -21879,7 +21897,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="12">
         <v>300</v>
       </c>
@@ -21909,7 +21927,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="12">
         <v>300</v>
       </c>
@@ -21939,7 +21957,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="12">
         <v>300</v>
       </c>
@@ -21969,7 +21987,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="12">
         <v>300</v>
       </c>
@@ -21999,7 +22017,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="12">
         <v>300</v>
       </c>
@@ -22029,7 +22047,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="12">
         <v>300</v>
       </c>
@@ -22059,7 +22077,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="12">
         <v>300</v>
       </c>
@@ -22089,7 +22107,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="12">
         <v>300</v>
       </c>
@@ -22119,7 +22137,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="12">
         <v>300</v>
       </c>
@@ -22149,7 +22167,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="12">
         <v>300</v>
       </c>
@@ -22179,7 +22197,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="12">
         <v>300</v>
       </c>
@@ -22209,7 +22227,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="12">
         <v>300</v>
       </c>
@@ -22239,7 +22257,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="12">
         <v>300</v>
       </c>
@@ -22269,7 +22287,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="12">
         <v>350</v>
       </c>
@@ -22299,7 +22317,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="12">
         <v>350</v>
       </c>
@@ -22329,7 +22347,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="12">
         <v>350</v>
       </c>
@@ -22359,7 +22377,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="12">
         <v>350</v>
       </c>
@@ -22389,7 +22407,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="12">
         <v>350</v>
       </c>
@@ -22419,7 +22437,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="12">
         <v>350</v>
       </c>
@@ -22449,7 +22467,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="12">
         <v>350</v>
       </c>
@@ -22479,7 +22497,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="12">
         <v>350</v>
       </c>
@@ -22509,7 +22527,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="12">
         <v>350</v>
       </c>
@@ -22539,7 +22557,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="12">
         <v>350</v>
       </c>
@@ -22569,7 +22587,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="12">
         <v>350</v>
       </c>
@@ -22599,7 +22617,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="12">
         <v>350</v>
       </c>
@@ -22629,7 +22647,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="12">
         <v>350</v>
       </c>
@@ -22659,7 +22677,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="12">
         <v>350</v>
       </c>
@@ -22689,7 +22707,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="12">
         <v>350</v>
       </c>
@@ -22719,7 +22737,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="12">
         <v>350</v>
       </c>
@@ -22749,7 +22767,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="12">
         <v>350</v>
       </c>
@@ -22779,7 +22797,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="12">
         <v>350</v>
       </c>
@@ -22809,7 +22827,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="12">
         <v>350</v>
       </c>
@@ -22839,7 +22857,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="12">
         <v>350</v>
       </c>
@@ -22869,7 +22887,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="12">
         <v>350</v>
       </c>
@@ -22899,7 +22917,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="12">
         <v>350</v>
       </c>
@@ -22929,7 +22947,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="12">
         <v>350</v>
       </c>
@@ -22959,7 +22977,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="12">
         <v>350</v>
       </c>
@@ -22989,7 +23007,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="12">
         <v>350</v>
       </c>
@@ -23019,7 +23037,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="12">
         <v>400</v>
       </c>
@@ -23049,7 +23067,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="12">
         <v>400</v>
       </c>
@@ -23079,7 +23097,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="12">
         <v>400</v>
       </c>
@@ -23109,7 +23127,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="12">
         <v>400</v>
       </c>
@@ -23139,7 +23157,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="12">
         <v>400</v>
       </c>
@@ -23169,7 +23187,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="12">
         <v>400</v>
       </c>
@@ -23199,7 +23217,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="12">
         <v>400</v>
       </c>
@@ -23229,7 +23247,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="12">
         <v>400</v>
       </c>
@@ -23259,7 +23277,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="338" spans="1:12">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="12">
         <v>400</v>
       </c>
@@ -23289,7 +23307,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="12">
         <v>400</v>
       </c>
@@ -23319,7 +23337,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="12">
         <v>400</v>
       </c>
@@ -23349,7 +23367,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="12">
         <v>400</v>
       </c>
@@ -23379,7 +23397,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="12">
         <v>400</v>
       </c>
@@ -23409,7 +23427,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="343" spans="1:12">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="12">
         <v>400</v>
       </c>
@@ -23439,7 +23457,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="344" spans="1:12">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="12">
         <v>400</v>
       </c>
@@ -23469,7 +23487,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="345" spans="1:12">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="12">
         <v>400</v>
       </c>
@@ -23499,7 +23517,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="12">
         <v>400</v>
       </c>
@@ -23529,7 +23547,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="12">
         <v>400</v>
       </c>
@@ -23559,7 +23577,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="348" spans="1:12">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="12">
         <v>400</v>
       </c>
@@ -23589,7 +23607,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="12">
         <v>400</v>
       </c>
@@ -23619,7 +23637,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="350" spans="1:12">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="12">
         <v>400</v>
       </c>
@@ -23649,7 +23667,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="12">
         <v>400</v>
       </c>
@@ -23679,7 +23697,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="352" spans="1:12">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="12">
         <v>400</v>
       </c>
@@ -23709,7 +23727,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="12">
         <v>400</v>
       </c>
@@ -23739,7 +23757,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="12">
         <v>400</v>
       </c>
@@ -23769,7 +23787,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="12">
         <v>450</v>
       </c>
@@ -23799,7 +23817,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="12">
         <v>450</v>
       </c>
@@ -23829,7 +23847,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="12">
         <v>450</v>
       </c>
@@ -23859,7 +23877,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="12">
         <v>450</v>
       </c>
@@ -23889,7 +23907,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="12">
         <v>450</v>
       </c>
@@ -23919,7 +23937,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="12">
         <v>450</v>
       </c>
@@ -23949,7 +23967,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="12">
         <v>450</v>
       </c>
@@ -23979,7 +23997,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="12">
         <v>450</v>
       </c>
@@ -24009,7 +24027,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="12">
         <v>450</v>
       </c>
@@ -24039,7 +24057,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="12">
         <v>450</v>
       </c>
@@ -24069,7 +24087,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="12">
         <v>450</v>
       </c>
@@ -24099,7 +24117,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="12">
         <v>450</v>
       </c>
@@ -24129,7 +24147,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="12">
         <v>450</v>
       </c>
@@ -24159,7 +24177,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="12">
         <v>450</v>
       </c>
@@ -24189,7 +24207,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="12">
         <v>450</v>
       </c>
@@ -24219,7 +24237,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="12">
         <v>450</v>
       </c>
@@ -24249,7 +24267,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="12">
         <v>450</v>
       </c>
@@ -24279,7 +24297,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="12">
         <v>450</v>
       </c>
@@ -24309,7 +24327,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="373" spans="1:12">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="12">
         <v>450</v>
       </c>
@@ -24339,7 +24357,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="374" spans="1:12">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="12">
         <v>450</v>
       </c>
@@ -24369,7 +24387,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="375" spans="1:12">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="12">
         <v>450</v>
       </c>
@@ -24399,7 +24417,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="12">
         <v>450</v>
       </c>
@@ -24429,7 +24447,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="377" spans="1:12">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="12">
         <v>450</v>
       </c>
@@ -24459,7 +24477,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="378" spans="1:12">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="12">
         <v>450</v>
       </c>
@@ -24489,7 +24507,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="12">
         <v>450</v>
       </c>
@@ -24519,7 +24537,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="380" spans="1:12">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="12">
         <v>500</v>
       </c>
@@ -24549,7 +24567,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="381" spans="1:12">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="12">
         <v>500</v>
       </c>
@@ -24579,7 +24597,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="382" spans="1:12">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="12">
         <v>500</v>
       </c>
@@ -24609,7 +24627,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="383" spans="1:12">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="12">
         <v>500</v>
       </c>
@@ -24639,7 +24657,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="384" spans="1:12">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="12">
         <v>500</v>
       </c>
@@ -24669,7 +24687,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="12">
         <v>500</v>
       </c>
@@ -24699,7 +24717,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="12">
         <v>500</v>
       </c>
@@ -24729,7 +24747,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="387" spans="1:12">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="12">
         <v>500</v>
       </c>
@@ -24759,7 +24777,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="12">
         <v>500</v>
       </c>
@@ -24789,7 +24807,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="12">
         <v>500</v>
       </c>
@@ -24819,7 +24837,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="390" spans="1:12">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="12">
         <v>500</v>
       </c>
@@ -24849,7 +24867,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="12">
         <v>500</v>
       </c>
@@ -24879,7 +24897,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="12">
         <v>500</v>
       </c>
@@ -24909,7 +24927,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="12">
         <v>500</v>
       </c>
@@ -24939,7 +24957,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="12">
         <v>500</v>
       </c>
@@ -24969,7 +24987,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="12">
         <v>500</v>
       </c>
@@ -24999,7 +25017,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="12">
         <v>500</v>
       </c>
@@ -25029,7 +25047,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="12">
         <v>500</v>
       </c>
@@ -25059,7 +25077,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="12">
         <v>500</v>
       </c>
@@ -25089,7 +25107,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="12">
         <v>500</v>
       </c>
@@ -25119,7 +25137,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="12">
         <v>500</v>
       </c>
@@ -25149,7 +25167,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="12">
         <v>500</v>
       </c>
@@ -25179,7 +25197,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="12">
         <v>500</v>
       </c>
@@ -25209,7 +25227,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="403" spans="1:12">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="12">
         <v>500</v>
       </c>
@@ -25239,7 +25257,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="12">
         <v>500</v>
       </c>
@@ -25269,7 +25287,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="12">
         <v>550</v>
       </c>
@@ -25299,7 +25317,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="12">
         <v>550</v>
       </c>
@@ -25329,7 +25347,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="12">
         <v>550</v>
       </c>
@@ -25359,7 +25377,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="12">
         <v>550</v>
       </c>
@@ -25389,7 +25407,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="12">
         <v>550</v>
       </c>
@@ -25419,7 +25437,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="12">
         <v>550</v>
       </c>
@@ -25449,7 +25467,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="12">
         <v>550</v>
       </c>
@@ -25479,7 +25497,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="12">
         <v>550</v>
       </c>
@@ -25509,7 +25527,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="413" spans="1:12">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="12">
         <v>550</v>
       </c>
@@ -25539,7 +25557,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="414" spans="1:12">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="12">
         <v>550</v>
       </c>
@@ -25569,7 +25587,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="12">
         <v>550</v>
       </c>
@@ -25599,7 +25617,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="12">
         <v>550</v>
       </c>
@@ -25629,7 +25647,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="417" spans="1:12">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="12">
         <v>550</v>
       </c>
@@ -25659,7 +25677,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="12">
         <v>550</v>
       </c>
@@ -25689,7 +25707,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="419" spans="1:12">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="12">
         <v>550</v>
       </c>
@@ -25719,7 +25737,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="420" spans="1:12">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="12">
         <v>550</v>
       </c>
@@ -25749,7 +25767,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="421" spans="1:12">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="12">
         <v>550</v>
       </c>
@@ -25779,7 +25797,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="422" spans="1:12">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="12">
         <v>550</v>
       </c>
@@ -25809,7 +25827,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="423" spans="1:12">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="12">
         <v>550</v>
       </c>
@@ -25839,7 +25857,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="424" spans="1:12">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="12">
         <v>550</v>
       </c>
@@ -25869,7 +25887,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="12">
         <v>550</v>
       </c>
@@ -25899,7 +25917,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="426" spans="1:12">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="12">
         <v>550</v>
       </c>
@@ -25929,7 +25947,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="427" spans="1:12">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="12">
         <v>550</v>
       </c>
@@ -25959,7 +25977,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="428" spans="1:12">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="12">
         <v>550</v>
       </c>
@@ -25989,7 +26007,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="429" spans="1:12">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="12">
         <v>550</v>
       </c>
@@ -26019,7 +26037,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="12">
         <v>600</v>
       </c>
@@ -26049,7 +26067,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="431" spans="1:12">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="12">
         <v>600</v>
       </c>
@@ -26079,7 +26097,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="12">
         <v>600</v>
       </c>
@@ -26109,7 +26127,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="12">
         <v>600</v>
       </c>
@@ -26139,7 +26157,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="12">
         <v>600</v>
       </c>
@@ -26169,7 +26187,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="435" spans="1:12">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="12">
         <v>600</v>
       </c>
@@ -26199,7 +26217,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="12">
         <v>600</v>
       </c>
@@ -26229,7 +26247,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="437" spans="1:12">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="12">
         <v>600</v>
       </c>
@@ -26259,7 +26277,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="12">
         <v>600</v>
       </c>
@@ -26289,7 +26307,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="12">
         <v>600</v>
       </c>
@@ -26319,7 +26337,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="12">
         <v>600</v>
       </c>
@@ -26349,7 +26367,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="12">
         <v>600</v>
       </c>
@@ -26379,7 +26397,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="12">
         <v>600</v>
       </c>
@@ -26409,7 +26427,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="12">
         <v>600</v>
       </c>
@@ -26439,7 +26457,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="12">
         <v>600</v>
       </c>
@@ -26469,7 +26487,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="12">
         <v>600</v>
       </c>
@@ -26499,7 +26517,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="12">
         <v>600</v>
       </c>
@@ -26529,7 +26547,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="12">
         <v>600</v>
       </c>
@@ -26559,7 +26577,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="12">
         <v>600</v>
       </c>
@@ -26589,7 +26607,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="449" spans="1:12">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="12">
         <v>600</v>
       </c>
@@ -26619,7 +26637,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="450" spans="1:12">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="12">
         <v>600</v>
       </c>
@@ -26649,7 +26667,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="451" spans="1:12">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="12">
         <v>600</v>
       </c>
@@ -26679,7 +26697,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="452" spans="1:12">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="12">
         <v>600</v>
       </c>
@@ -26709,7 +26727,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="453" spans="1:12">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="12">
         <v>600</v>
       </c>
@@ -26739,7 +26757,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="454" spans="1:12">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="12">
         <v>600</v>
       </c>
@@ -26769,7 +26787,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="455" spans="1:12">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="12">
         <v>650</v>
       </c>
@@ -26799,7 +26817,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="456" spans="1:12">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="12">
         <v>650</v>
       </c>
@@ -26829,7 +26847,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="457" spans="1:12">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="12">
         <v>650</v>
       </c>
@@ -26859,7 +26877,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="458" spans="1:12">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="12">
         <v>650</v>
       </c>
@@ -26889,7 +26907,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="459" spans="1:12">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="12">
         <v>650</v>
       </c>
@@ -26919,7 +26937,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="460" spans="1:12">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="12">
         <v>650</v>
       </c>
@@ -26949,7 +26967,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="461" spans="1:12">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="12">
         <v>650</v>
       </c>
@@ -26979,7 +26997,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="462" spans="1:12">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="12">
         <v>650</v>
       </c>
@@ -27009,7 +27027,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="463" spans="1:12">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="12">
         <v>650</v>
       </c>
@@ -27039,7 +27057,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="464" spans="1:12">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="12">
         <v>650</v>
       </c>
@@ -27069,7 +27087,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="465" spans="1:12">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="12">
         <v>650</v>
       </c>
@@ -27099,7 +27117,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="466" spans="1:12">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="12">
         <v>650</v>
       </c>
@@ -27129,7 +27147,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="467" spans="1:12">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="12">
         <v>650</v>
       </c>
@@ -27159,7 +27177,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="468" spans="1:12">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="12">
         <v>650</v>
       </c>
@@ -27189,7 +27207,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="12">
         <v>650</v>
       </c>
@@ -27219,7 +27237,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="470" spans="1:12">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="12">
         <v>650</v>
       </c>
@@ -27249,7 +27267,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="471" spans="1:12">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="12">
         <v>650</v>
       </c>
@@ -27279,7 +27297,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="472" spans="1:12">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="12">
         <v>650</v>
       </c>
@@ -27309,7 +27327,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="473" spans="1:12">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="12">
         <v>650</v>
       </c>
@@ -27339,7 +27357,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="474" spans="1:12">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="12">
         <v>650</v>
       </c>
@@ -27369,7 +27387,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="475" spans="1:12">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="12">
         <v>650</v>
       </c>
@@ -27399,7 +27417,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="476" spans="1:12">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="12">
         <v>650</v>
       </c>
@@ -27429,7 +27447,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="477" spans="1:12">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="12">
         <v>650</v>
       </c>
@@ -27459,7 +27477,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="478" spans="1:12">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="12">
         <v>650</v>
       </c>
@@ -27489,7 +27507,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="479" spans="1:12">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="12">
         <v>650</v>
       </c>
@@ -27519,7 +27537,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="480" spans="1:12">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="12">
         <v>700</v>
       </c>
@@ -27549,7 +27567,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="481" spans="1:12">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="12">
         <v>700</v>
       </c>
@@ -27579,7 +27597,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="482" spans="1:12">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="12">
         <v>700</v>
       </c>
@@ -27609,7 +27627,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="483" spans="1:12">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="12">
         <v>700</v>
       </c>
@@ -27639,7 +27657,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="484" spans="1:12">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="12">
         <v>700</v>
       </c>
@@ -27669,7 +27687,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="485" spans="1:12">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="12">
         <v>700</v>
       </c>
@@ -27699,7 +27717,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="486" spans="1:12">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="12">
         <v>700</v>
       </c>
@@ -27729,7 +27747,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="487" spans="1:12">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="12">
         <v>700</v>
       </c>
@@ -27759,7 +27777,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="488" spans="1:12">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="12">
         <v>700</v>
       </c>
@@ -27789,7 +27807,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="489" spans="1:12">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="12">
         <v>700</v>
       </c>
@@ -27819,7 +27837,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="490" spans="1:12">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="12">
         <v>700</v>
       </c>
@@ -27849,7 +27867,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="491" spans="1:12">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="12">
         <v>700</v>
       </c>
@@ -27879,7 +27897,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="492" spans="1:12">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="12">
         <v>700</v>
       </c>
@@ -27909,7 +27927,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="493" spans="1:12">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="12">
         <v>700</v>
       </c>
@@ -27939,7 +27957,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="494" spans="1:12">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="12">
         <v>700</v>
       </c>
@@ -27969,7 +27987,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="495" spans="1:12">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="12">
         <v>700</v>
       </c>
@@ -27999,7 +28017,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="496" spans="1:12">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="12">
         <v>700</v>
       </c>
@@ -28029,7 +28047,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="497" spans="1:12">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="12">
         <v>700</v>
       </c>
@@ -28059,7 +28077,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="498" spans="1:12">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="12">
         <v>700</v>
       </c>
@@ -28089,7 +28107,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="499" spans="1:12">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="12">
         <v>700</v>
       </c>
@@ -28119,7 +28137,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="500" spans="1:12">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="12">
         <v>700</v>
       </c>
@@ -28149,7 +28167,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="501" spans="1:12">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A501" s="12">
         <v>700</v>
       </c>
@@ -28179,7 +28197,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A502" s="12">
         <v>700</v>
       </c>
@@ -28209,7 +28227,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="503" spans="1:12">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A503" s="12">
         <v>700</v>
       </c>
@@ -28239,7 +28257,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="504" spans="1:12">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A504" s="12">
         <v>700</v>
       </c>
@@ -28269,7 +28287,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="505" spans="1:12">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A505" s="12">
         <v>750</v>
       </c>
@@ -28299,7 +28317,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A506" s="12">
         <v>750</v>
       </c>
@@ -28329,7 +28347,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="507" spans="1:12">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A507" s="12">
         <v>750</v>
       </c>
@@ -28359,7 +28377,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="508" spans="1:12">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A508" s="12">
         <v>750</v>
       </c>
@@ -28389,7 +28407,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="509" spans="1:12">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A509" s="12">
         <v>750</v>
       </c>
@@ -28419,7 +28437,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="510" spans="1:12">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A510" s="12">
         <v>750</v>
       </c>
@@ -28449,7 +28467,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A511" s="12">
         <v>750</v>
       </c>
@@ -28479,7 +28497,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A512" s="12">
         <v>750</v>
       </c>
@@ -28509,7 +28527,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="513" spans="1:12">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A513" s="12">
         <v>750</v>
       </c>
@@ -28539,7 +28557,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="514" spans="1:12">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A514" s="12">
         <v>750</v>
       </c>
@@ -28569,7 +28587,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="515" spans="1:12">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A515" s="12">
         <v>750</v>
       </c>
@@ -28599,7 +28617,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="516" spans="1:12">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516" s="12">
         <v>750</v>
       </c>
@@ -28629,7 +28647,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="517" spans="1:12">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517" s="12">
         <v>750</v>
       </c>
@@ -28659,7 +28677,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="518" spans="1:12">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518" s="12">
         <v>750</v>
       </c>
@@ -28689,7 +28707,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="519" spans="1:12">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519" s="12">
         <v>750</v>
       </c>
@@ -28719,7 +28737,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="520" spans="1:12">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A520" s="12">
         <v>750</v>
       </c>
@@ -28749,7 +28767,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="521" spans="1:12">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521" s="12">
         <v>750</v>
       </c>
@@ -28779,7 +28797,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="522" spans="1:12">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A522" s="12">
         <v>750</v>
       </c>
@@ -28809,7 +28827,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="523" spans="1:12">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523" s="12">
         <v>750</v>
       </c>
@@ -28839,7 +28857,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="524" spans="1:12">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524" s="12">
         <v>750</v>
       </c>
@@ -28869,7 +28887,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="525" spans="1:12">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525" s="12">
         <v>750</v>
       </c>
@@ -28899,7 +28917,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="526" spans="1:12">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526" s="12">
         <v>750</v>
       </c>
@@ -28929,7 +28947,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="527" spans="1:12">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527" s="12">
         <v>750</v>
       </c>
@@ -28959,7 +28977,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="528" spans="1:12">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528" s="12">
         <v>750</v>
       </c>
@@ -28989,7 +29007,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="529" spans="1:12">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529" s="12">
         <v>750</v>
       </c>
@@ -29019,7 +29037,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="530" spans="1:12">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530" s="12">
         <v>800</v>
       </c>
@@ -29049,7 +29067,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="531" spans="1:12">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531" s="12">
         <v>800</v>
       </c>
@@ -29079,7 +29097,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="532" spans="1:12">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532" s="12">
         <v>800</v>
       </c>
@@ -29109,7 +29127,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="533" spans="1:12">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533" s="12">
         <v>800</v>
       </c>
@@ -29139,7 +29157,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="534" spans="1:12">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534" s="12">
         <v>800</v>
       </c>
@@ -29169,7 +29187,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="535" spans="1:12">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535" s="12">
         <v>800</v>
       </c>
@@ -29199,7 +29217,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="536" spans="1:12">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536" s="12">
         <v>800</v>
       </c>
@@ -29229,7 +29247,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="537" spans="1:12">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537" s="12">
         <v>800</v>
       </c>
@@ -29259,7 +29277,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="538" spans="1:12">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538" s="12">
         <v>800</v>
       </c>
@@ -29289,7 +29307,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="539" spans="1:12">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539" s="12">
         <v>800</v>
       </c>
@@ -29319,7 +29337,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="540" spans="1:12">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540" s="12">
         <v>800</v>
       </c>
@@ -29349,7 +29367,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="541" spans="1:12">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541" s="12">
         <v>800</v>
       </c>
@@ -29379,7 +29397,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="542" spans="1:12">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542" s="12">
         <v>800</v>
       </c>
@@ -29409,7 +29427,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="543" spans="1:12">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543" s="12">
         <v>800</v>
       </c>
@@ -29439,7 +29457,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="544" spans="1:12">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544" s="12">
         <v>800</v>
       </c>
@@ -29469,7 +29487,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="545" spans="1:12">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545" s="12">
         <v>800</v>
       </c>
@@ -29499,7 +29517,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="546" spans="1:12">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546" s="12">
         <v>800</v>
       </c>
@@ -29529,7 +29547,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="547" spans="1:12">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547" s="12">
         <v>800</v>
       </c>
@@ -29559,7 +29577,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="548" spans="1:12">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548" s="12">
         <v>800</v>
       </c>
@@ -29589,7 +29607,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="549" spans="1:12">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549" s="12">
         <v>800</v>
       </c>
@@ -29619,7 +29637,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="550" spans="1:12">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550" s="12">
         <v>800</v>
       </c>
@@ -29649,7 +29667,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="551" spans="1:12">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" s="12">
         <v>800</v>
       </c>
@@ -29679,7 +29697,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="552" spans="1:12">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552" s="12">
         <v>800</v>
       </c>
@@ -29709,7 +29727,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="553" spans="1:12">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553" s="12">
         <v>800</v>
       </c>
@@ -29739,7 +29757,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="554" spans="1:12">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" s="12">
         <v>800</v>
       </c>
@@ -29788,15 +29806,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle4">
+    <tabColor theme="0"/>
+  </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -29812,9 +29833,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B2" s="54"/>
       <c r="D2" s="1" t="s">
@@ -29827,7 +29848,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="54"/>
       <c r="B3" s="54"/>
       <c r="D3" s="1" t="s">
@@ -29840,7 +29861,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="54"/>
       <c r="B4" s="54"/>
       <c r="D4" s="5">
@@ -29854,7 +29875,7 @@
         <v>3.7109999999999999E-10</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>5</v>
       </c>
@@ -29889,7 +29910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="54" t="s">
         <v>14</v>
       </c>
@@ -29924,7 +29945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>340</v>
@@ -29939,7 +29960,7 @@
         <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>343</v>
@@ -29954,10 +29975,10 @@
         <v>332</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>B8-273.15</f>
         <v>-98.149999999999977</v>
@@ -29993,7 +30014,7 @@
         <v>0.58599999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ref="A9:A32" si="0">B9-273.15</f>
         <v>-73.149999999999977</v>
@@ -30029,7 +30050,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>-48.149999999999977</v>
@@ -30065,7 +30086,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>-23.149999999999977</v>
@@ -30101,7 +30122,7 @@
         <v>1.1319999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1.8500000000000227</v>
@@ -30137,7 +30158,7 @@
         <v>1.343</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>26.850000000000023</v>
@@ -30173,7 +30194,7 @@
         <v>1.5680000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>51.850000000000023</v>
@@ -30209,7 +30230,7 @@
         <v>1.8069999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>76.850000000000023</v>
@@ -30245,7 +30266,7 @@
         <v>2.056</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>101.85000000000002</v>
@@ -30281,7 +30302,7 @@
         <v>2.3170000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>126.85000000000002</v>
@@ -30317,7 +30338,7 @@
         <v>2.5910000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>176.85000000000002</v>
@@ -30353,7 +30374,7 @@
         <v>3.1680000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>226.85000000000002</v>
@@ -30389,7 +30410,7 @@
         <v>3.782</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>276.85000000000002</v>
@@ -30425,7 +30446,7 @@
         <v>4.4390000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>326.85000000000002</v>
@@ -30461,7 +30482,7 @@
         <v>5.1280000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>376.85</v>
@@ -30497,7 +30518,7 @@
         <v>5.8529999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>426.85</v>
@@ -30533,7 +30554,7 @@
         <v>6.6070000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>476.85</v>
@@ -30569,7 +30590,7 @@
         <v>7.399</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>526.85</v>
@@ -30605,7 +30626,7 @@
         <v>8.2140000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>576.85</v>
@@ -30641,7 +30662,7 @@
         <v>9.0609999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>626.85</v>
@@ -30677,7 +30698,7 @@
         <v>9.9359999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>676.85</v>
@@ -30713,7 +30734,7 @@
         <v>10.83</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>726.85</v>
@@ -30749,7 +30770,7 @@
         <v>11.76</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>776.85</v>
@@ -30785,7 +30806,7 @@
         <v>12.72</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>826.85</v>
@@ -30821,7 +30842,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>876.85</v>
@@ -30857,7 +30878,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="37" spans="5:5">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E37" s="13"/>
     </row>
   </sheetData>
@@ -30875,20 +30896,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle5">
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -30900,9 +30924,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -30914,7 +30938,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>331</v>
       </c>
@@ -30925,7 +30949,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D4" s="15">
         <v>28.013400000000001</v>
       </c>
@@ -30934,7 +30958,7 @@
       </c>
       <c r="F4" s="51"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
@@ -30963,7 +30987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -30989,7 +31013,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>340</v>
@@ -31004,7 +31028,7 @@
         <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>343</v>
@@ -31016,7 +31040,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>B8-273.15</f>
         <v>-23.149999999999977</v>
@@ -31043,7 +31067,7 @@
         <v>0.71589999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ref="A9:A10" si="0">B9-273.15</f>
         <v>26.850000000000023</v>
@@ -31070,7 +31094,7 @@
         <v>0.7157</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>726.85</v>
@@ -31112,20 +31136,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle6">
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -31137,9 +31164,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -31151,7 +31178,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>331</v>
       </c>
@@ -31162,7 +31189,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D4">
         <v>31.998799999999999</v>
       </c>
@@ -31171,7 +31198,7 @@
       </c>
       <c r="F4" s="51"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
@@ -31200,7 +31227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -31229,7 +31256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>340</v>
@@ -31244,7 +31271,7 @@
         <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>343</v>
@@ -31256,7 +31283,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>B8-273.15</f>
         <v>-23.149999999999977</v>
@@ -31283,7 +31310,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ref="A9:A10" si="0">B9-273.15</f>
         <v>26.850000000000023</v>
@@ -31310,7 +31337,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>99.850000000000023</v>
@@ -31352,20 +31379,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle7">
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -31377,9 +31407,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -31391,7 +31421,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>331</v>
       </c>
@@ -31402,7 +31432,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D4" s="15">
         <v>44.009500000000003</v>
       </c>
@@ -31411,7 +31441,7 @@
       </c>
       <c r="F4" s="51"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
@@ -31440,7 +31470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -31469,7 +31499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>340</v>
@@ -31484,7 +31514,7 @@
         <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>343</v>
@@ -31496,7 +31526,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>B8-273.15</f>
         <v>-23.149999999999977</v>
@@ -31523,7 +31553,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ref="A9:A10" si="0">B9-273.15</f>
         <v>26.850000000000023</v>
@@ -31550,7 +31580,7 @@
         <v>0.76343399999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>626.85</v>
@@ -31592,20 +31622,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle8">
+    <tabColor theme="9" tint="0.59999389629810485"/>
+  </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -31617,9 +31650,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -31631,7 +31664,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>331</v>
       </c>
@@ -31642,7 +31675,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D4" s="15">
         <v>16.0425</v>
       </c>
@@ -31651,7 +31684,7 @@
       </c>
       <c r="F4" s="51"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
@@ -31680,7 +31713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -31709,7 +31742,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>340</v>
@@ -31724,7 +31757,7 @@
         <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>343</v>
@@ -31736,7 +31769,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>B8-273.15</f>
         <v>-23.149999999999977</v>
@@ -31763,7 +31796,7 @@
         <v>0.90109499999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ref="A9:A12" si="0">B9-273.15</f>
         <v>26.850000000000023</v>
@@ -31790,7 +31823,7 @@
         <v>0.90109499999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>226.85000000000002</v>
@@ -31817,7 +31850,7 @@
         <v>0.90109499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>426.85</v>
@@ -31844,7 +31877,7 @@
         <v>0.90109499999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>626.85</v>
@@ -31871,7 +31904,7 @@
         <v>0.90109499999999998</v>
       </c>
     </row>
-    <row r="20" spans="7:7">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G20" s="15"/>
     </row>
   </sheetData>
@@ -31889,15 +31922,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Tabelle9"/>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -31914,9 +31948,9 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -31928,7 +31962,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>331</v>
       </c>
@@ -31939,7 +31973,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D4" s="15">
         <v>2.0158800000000001</v>
       </c>
@@ -31948,7 +31982,7 @@
       </c>
       <c r="F4" s="51"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>5</v>
       </c>
@@ -31977,7 +32011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -32006,7 +32040,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" t="s">
         <v>340</v>
@@ -32021,7 +32055,7 @@
         <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>343</v>
@@ -32033,7 +32067,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>B8-273.15</f>
         <v>-23.149999999999977</v>
@@ -32060,7 +32094,7 @@
         <v>0.90109499999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" ref="A9:A10" si="0">B9-273.15</f>
         <v>26.850000000000023</v>
@@ -32087,7 +32121,7 @@
         <v>0.90109499999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>726.85</v>

--- a/core/+matter/Matter.xlsx
+++ b/core/+matter/Matter.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gitlab\core\+matter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STEPS Gitlab\core\+matter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="627" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="20" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="390">
   <si>
     <t>Molar mass</t>
   </si>
@@ -1196,39 +1196,7 @@
     <t>alternate name, like water for H2O</t>
   </si>
   <si>
-    <t>number of constants is not limited, as long as they written here in a new column</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">variablename of constant1, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>NEEDED!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">value of constant1, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>NEEDED!</t>
-    </r>
-  </si>
-  <si>
     <t>formation of first 7 rows is strict</t>
-  </si>
-  <si>
-    <t>complete empty rows are not allowed!</t>
   </si>
   <si>
     <t>dimension</t>
@@ -1274,49 +1242,16 @@
     <t>worksheet has to divided into individual worksheets</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Name of property, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>NEEDED!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">variablename of property, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>NEEDED!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">value of property, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>NEEDED!</t>
-    </r>
-  </si>
-  <si>
     <t>values of properties is not limited (Excel 2013 allows ‎1.048.576 ‎rows)</t>
   </si>
   <si>
-    <t>number of properties is not limited, as long as they written here in a new column (Excel 2013 allows ‎16.384 ‎columns)</t>
+    <t>Speciesname (as chemical equation)</t>
+  </si>
+  <si>
+    <t>number of constants is not limited, as long as they are written here into a new column</t>
+  </si>
+  <si>
+    <t>number of properties is not limited, as long as they are written here into a new column (Excel 2013 allows ‎16.384 ‎columns)</t>
   </si>
   <si>
     <r>
@@ -1329,11 +1264,106 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NEEDED!</t>
+      <t>REQUIRED!</t>
     </r>
   </si>
   <si>
-    <t>Speciesname (as chemical equation)</t>
+    <r>
+      <t xml:space="preserve">variablename of constant1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>REQUIRED!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">value of constant1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>REQUIRED!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Name of property, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> REQUIRED!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">variablename of property, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> REQUIRED!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">value of property, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> REQUIRED!</t>
+    </r>
+  </si>
+  <si>
+    <t>completely empty rows are not allowed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boxed area is a sample for the compound </t>
+  </si>
+  <si>
+    <t>Hydrogen Sulfate</t>
+  </si>
+  <si>
+    <t>Ozone</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide</t>
+  </si>
+  <si>
+    <t>Hydrogen Peroxide</t>
+  </si>
+  <si>
+    <t>Potassium Superoxide</t>
+  </si>
+  <si>
+    <t>Potassium Hydroxide</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1561,6 +1591,86 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1615,7 +1725,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1722,6 +1832,18 @@
     </xf>
     <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Akzent1" xfId="1"/>
@@ -2205,110 +2327,134 @@
   <sheetPr codeName="Tabelle1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
+      <c r="D3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="66"/>
+      <c r="B7" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="69">
+        <v>0</v>
+      </c>
+      <c r="B8" s="70">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="C8" s="71">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="52" t="s">
         <v>379</v>
       </c>
-      <c r="B1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>373</v>
-      </c>
-      <c r="E5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="D7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="D8" t="s">
-        <v>375</v>
-      </c>
-      <c r="E8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="53" t="str">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="53" t="str">
         <f>HYPERLINK("#'H2O'!A1","for an example refer worksheet H2O")</f>
         <v>for an example refer worksheet H2O</v>
       </c>
@@ -7680,7 +7826,7 @@
     </row>
     <row r="2" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -7761,7 +7907,7 @@
         <v>332</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -8002,7 +8148,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B1" s="17">
         <v>14541</v>
@@ -8013,7 +8159,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D2" s="1"/>
       <c r="J2" s="13"/>
@@ -8088,7 +8234,7 @@
         <v>332</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -9193,7 +9339,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="52" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -9216,9 +9362,9 @@
   </sheetPr>
   <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9293,14 +9439,16 @@
         <v>337</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="23" t="s">
+        <v>384</v>
+      </c>
       <c r="C3" s="19" t="s">
         <v>326</v>
       </c>
@@ -9316,7 +9464,9 @@
       <c r="G3" s="25">
         <v>0.73</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="25">
+        <v>2165</v>
+      </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
@@ -9324,7 +9474,9 @@
       <c r="A4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="23" t="s">
+        <v>385</v>
+      </c>
       <c r="C4" s="19" t="s">
         <v>326</v>
       </c>
@@ -9350,7 +9502,9 @@
       <c r="A5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="23" t="s">
+        <v>385</v>
+      </c>
       <c r="C5" s="19" t="s">
         <v>328</v>
       </c>
@@ -9374,7 +9528,9 @@
       <c r="A6" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="23" t="s">
+        <v>381</v>
+      </c>
       <c r="C6" s="19" t="s">
         <v>326</v>
       </c>
@@ -9396,7 +9552,9 @@
       <c r="A7" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="23" t="s">
+        <v>386</v>
+      </c>
       <c r="C7" s="19" t="s">
         <v>326</v>
       </c>
@@ -9422,7 +9580,9 @@
       <c r="A8" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="23" t="s">
+        <v>383</v>
+      </c>
       <c r="C8" s="19" t="s">
         <v>327</v>
       </c>
@@ -9440,7 +9600,9 @@
       <c r="A9" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" s="19" t="s">
         <v>328</v>
       </c>
@@ -9458,7 +9620,9 @@
       <c r="A10" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="23" t="s">
+        <v>363</v>
+      </c>
       <c r="C10" s="19" t="s">
         <v>326</v>
       </c>
@@ -9484,7 +9648,9 @@
       <c r="A11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="C11" s="19" t="s">
         <v>327</v>
       </c>
@@ -9505,7 +9671,9 @@
       <c r="A12" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="23" t="s">
+        <v>39</v>
+      </c>
       <c r="C12" s="19" t="s">
         <v>327</v>
       </c>
@@ -9524,7 +9692,9 @@
       <c r="A13" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="23" t="s">
+        <v>387</v>
+      </c>
       <c r="C13" s="19" t="s">
         <v>326</v>
       </c>
@@ -9548,7 +9718,9 @@
       <c r="A14" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="23" t="s">
+        <v>382</v>
+      </c>
       <c r="C14" s="19" t="s">
         <v>326</v>
       </c>
@@ -9572,7 +9744,9 @@
       <c r="A15" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="C15" s="19" t="s">
         <v>326</v>
       </c>
@@ -9601,7 +9775,9 @@
       <c r="A16" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="C16" s="19" t="s">
         <v>328</v>
       </c>
@@ -9622,7 +9798,9 @@
       <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="C17" s="19" t="s">
         <v>326</v>
       </c>
@@ -9649,7 +9827,9 @@
       <c r="A18" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="23" t="s">
+        <v>122</v>
+      </c>
       <c r="C18" s="19" t="s">
         <v>328</v>
       </c>
@@ -9676,7 +9856,9 @@
       <c r="A19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="23" t="s">
+        <v>120</v>
+      </c>
       <c r="C19" s="19" t="s">
         <v>326</v>
       </c>
@@ -9700,7 +9882,9 @@
       <c r="A20" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="23" t="s">
+        <v>120</v>
+      </c>
       <c r="C20" s="19" t="s">
         <v>328</v>
       </c>
@@ -9724,7 +9908,9 @@
       <c r="A21" s="39" t="s">
         <v>338</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="23" t="s">
+        <v>388</v>
+      </c>
       <c r="C21" s="19" t="s">
         <v>327</v>
       </c>
@@ -9747,7 +9933,9 @@
       <c r="A22" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="23" t="s">
+        <v>389</v>
+      </c>
       <c r="C22" s="19" t="s">
         <v>328</v>
       </c>
@@ -9767,7 +9955,9 @@
       <c r="A23" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="23" t="s">
+        <v>389</v>
+      </c>
       <c r="C23" s="19" t="s">
         <v>327</v>
       </c>
@@ -12989,7 +13179,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29835,7 +30025,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B2" s="54"/>
       <c r="D2" s="1" t="s">
@@ -29960,7 +30150,7 @@
         <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>343</v>
@@ -29975,7 +30165,7 @@
         <v>332</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -30912,7 +31102,7 @@
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -30926,7 +31116,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -31028,7 +31218,7 @@
         <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>343</v>
@@ -31152,7 +31342,7 @@
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -31166,7 +31356,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -31271,7 +31461,7 @@
         <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>343</v>
@@ -31395,7 +31585,7 @@
         <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -31409,7 +31599,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -31514,7 +31704,7 @@
         <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>343</v>
@@ -31638,7 +31828,7 @@
         <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -31652,7 +31842,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -31757,7 +31947,7 @@
         <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>343</v>
@@ -31926,7 +32116,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31950,7 +32140,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -32055,7 +32245,7 @@
         <v>342</v>
       </c>
       <c r="F7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>343</v>

--- a/core/+matter/Matter.xlsx
+++ b/core/+matter/Matter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
   <workbookPr codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="627" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="627" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="20" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="331">
   <si>
     <t>Molar mass</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>O3</t>
-  </si>
-  <si>
-    <t>Temperatur</t>
   </si>
   <si>
     <t>kappa</t>
@@ -1485,7 +1482,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1507,6 +1504,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1656,7 +1666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="64">
     <cellStyle name="20% - Akzent1" xfId="1"/>
     <cellStyle name="20% - Akzent2" xfId="2"/>
     <cellStyle name="20% - Akzent3" xfId="3"/>
@@ -1705,6 +1715,19 @@
     <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Excel Built-in Normal" xfId="19"/>
     <cellStyle name="Link" xfId="20" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2130,7 +2153,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2156,37 +2179,37 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C1" s="60"/>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="61" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="61" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B3" s="62"/>
       <c r="C3" s="63"/>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2194,7 +2217,7 @@
       <c r="B4" s="62"/>
       <c r="C4" s="63"/>
       <c r="D4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2208,10 +2231,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2225,19 +2248,19 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="64"/>
       <c r="B7" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="66" t="s">
-        <v>284</v>
-      </c>
       <c r="D7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13" thickBot="1">
@@ -2251,20 +2274,20 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2289,18 +2312,18 @@
   <sheetPr codeName="Tabelle12" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2310,7 +2333,7 @@
     </row>
     <row r="2" spans="1:10" ht="14" customHeight="1">
       <c r="A2" s="54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -2319,7 +2342,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="D3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J3" s="14"/>
     </row>
@@ -2333,13 +2356,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>9</v>
@@ -2348,7 +2371,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2368,7 +2391,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>20</v>
@@ -2376,22 +2399,22 @@
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" t="s">
         <v>283</v>
       </c>
-      <c r="C7" t="s">
-        <v>284</v>
-      </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2628,7 +2651,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2655,55 +2678,55 @@
         <v>23</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I1" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>267</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="44" customFormat="1" ht="15">
       <c r="A2" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="E2" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="43" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>277</v>
-      </c>
-      <c r="F2" s="43" t="s">
+      <c r="H2" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" s="43" t="s">
         <v>278</v>
       </c>
-      <c r="G2" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="H2" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="I2" s="43" t="s">
+      <c r="J2" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="J2" s="43" t="s">
-        <v>280</v>
-      </c>
       <c r="K2" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2711,10 +2734,10 @@
         <v>30</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D3" s="23">
         <v>17.030519999999999</v>
@@ -2739,10 +2762,10 @@
         <v>31</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D4" s="23">
         <v>44.009500000000003</v>
@@ -2767,10 +2790,10 @@
         <v>31</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D5" s="23">
         <v>44.009500000000003</v>
@@ -2781,7 +2804,9 @@
       <c r="F5" s="19">
         <v>216.6</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="19">
+        <v>1.9770000000000001</v>
+      </c>
       <c r="H5" s="23">
         <v>819</v>
       </c>
@@ -2793,10 +2818,10 @@
         <v>32</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D6" s="23">
         <v>98.078479999999999</v>
@@ -2817,10 +2842,10 @@
         <v>33</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7" s="23">
         <v>28.010100000000001</v>
@@ -2845,10 +2870,10 @@
         <v>34</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8" s="23">
         <v>62.004899999999999</v>
@@ -2868,7 +2893,7 @@
         <v>35</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D9" s="23">
         <v>18</v>
@@ -2885,10 +2910,10 @@
         <v>36</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D10" s="23">
         <v>16.042459999999998</v>
@@ -2916,7 +2941,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" s="22">
         <v>43.47</v>
@@ -2939,7 +2964,7 @@
         <v>38</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D12" s="23">
         <v>50</v>
@@ -2957,10 +2982,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D13" s="23">
         <v>34.014679999999998</v>
@@ -2983,10 +3008,10 @@
         <v>40</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D14" s="23">
         <v>47.998199999999997</v>
@@ -3009,10 +3034,10 @@
         <v>29</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D15" s="23">
         <f>2*D24</f>
@@ -3040,10 +3065,10 @@
         <v>29</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D16" s="23">
         <f>D15</f>
@@ -3063,10 +3088,10 @@
         <v>27</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D17" s="23">
         <v>32</v>
@@ -3092,10 +3117,10 @@
         <v>27</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D18" s="23">
         <v>32</v>
@@ -3121,10 +3146,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D19" s="23">
         <v>28.013000000000002</v>
@@ -3147,10 +3172,10 @@
         <v>28</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D20" s="23">
         <v>28.013000000000002</v>
@@ -3170,13 +3195,13 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D21" s="23">
         <v>71.099999999999994</v>
@@ -3195,13 +3220,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D22" s="23">
         <v>56.11</v>
@@ -3217,13 +3242,13 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D23" s="23">
         <v>56.11</v>
@@ -3247,13 +3272,13 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>52</v>
-      </c>
       <c r="C24" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D24" s="24">
         <v>1.0079400000000001</v>
@@ -3277,13 +3302,13 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D25" s="25">
         <v>4.0026000000000002</v>
@@ -3308,13 +3333,13 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D26" s="26">
         <v>6.9409999999999998</v>
@@ -3341,13 +3366,13 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D27" s="24">
         <v>9.0121819999999992</v>
@@ -3373,13 +3398,13 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D28" s="24">
         <v>10.811</v>
@@ -3406,10 +3431,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D29" s="24">
         <v>12.0107</v>
@@ -3438,10 +3463,10 @@
         <v>13</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D30" s="24">
         <v>12.0107</v>
@@ -3461,13 +3486,13 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D31" s="26">
         <v>14.0067</v>
@@ -3491,13 +3516,13 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D32" s="26">
         <v>15.9994</v>
@@ -3520,13 +3545,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D33" s="24">
         <v>18.998403199999998</v>
@@ -3548,13 +3573,13 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D34" s="24">
         <v>20.1797</v>
@@ -3578,13 +3603,13 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D35" s="27">
         <v>22.98977</v>
@@ -3610,13 +3635,13 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D36" s="28">
         <v>24.305</v>
@@ -3642,13 +3667,13 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D37" s="27">
         <v>26.981538</v>
@@ -3674,13 +3699,13 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D38" s="24">
         <v>28.0855</v>
@@ -3706,13 +3731,13 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D39" s="27">
         <v>30.973761</v>
@@ -3738,13 +3763,13 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D40" s="24">
         <v>32.064999999999998</v>
@@ -3770,13 +3795,13 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D41" s="26">
         <v>35.453000000000003</v>
@@ -3798,13 +3823,13 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D42" s="26">
         <v>39.948</v>
@@ -3831,10 +3856,10 @@
         <v>14</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D43" s="24">
         <v>39.098300000000002</v>
@@ -3860,13 +3885,13 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D44" s="24">
         <v>40.078000000000003</v>
@@ -3892,13 +3917,13 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D45" s="27">
         <v>44.955910000000003</v>
@@ -3922,13 +3947,13 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D46" s="24">
         <v>47.866999999999997</v>
@@ -3954,13 +3979,13 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D47" s="24">
         <v>50.941499999999998</v>
@@ -3984,13 +4009,13 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D48" s="24">
         <v>51.996099999999998</v>
@@ -4016,13 +4041,13 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D49" s="24">
         <v>54.938048999999999</v>
@@ -4048,13 +4073,13 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D50" s="24">
         <v>55.844999999999999</v>
@@ -4080,13 +4105,13 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D51" s="27">
         <v>58.933199999999999</v>
@@ -4112,13 +4137,13 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D52" s="24">
         <v>58.693399999999997</v>
@@ -4144,13 +4169,13 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D53" s="24">
         <v>63.545999999999999</v>
@@ -4176,13 +4201,13 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D54" s="24">
         <v>65.39</v>
@@ -4208,13 +4233,13 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D55" s="24">
         <v>69.722999999999999</v>
@@ -4240,13 +4265,13 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D56" s="24">
         <v>72.64</v>
@@ -4272,13 +4297,13 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D57" s="25">
         <v>74.921599999999998</v>
@@ -4302,13 +4327,13 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D58" s="26">
         <v>78.959999999999994</v>
@@ -4334,13 +4359,13 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D59" s="24">
         <v>79.903999999999996</v>
@@ -4362,13 +4387,13 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B60" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D60" s="29">
         <v>83.8</v>
@@ -4392,13 +4417,13 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D61" s="24">
         <v>85.467799999999997</v>
@@ -4424,13 +4449,13 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B62" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D62" s="24">
         <v>87.62</v>
@@ -4454,13 +4479,13 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D63" s="24">
         <v>88.905850000000001</v>
@@ -4484,13 +4509,13 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D64" s="24">
         <v>91.224000000000004</v>
@@ -4516,13 +4541,13 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D65" s="24">
         <v>92.906379999999999</v>
@@ -4548,13 +4573,13 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B66" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D66" s="26">
         <v>95.94</v>
@@ -4578,13 +4603,13 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D67" s="24">
         <v>98.906300000000002</v>
@@ -4608,13 +4633,13 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D68" s="24">
         <v>101.07</v>
@@ -4640,13 +4665,13 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D69" s="24">
         <v>102.9055</v>
@@ -4672,13 +4697,13 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D70" s="24">
         <v>106.42</v>
@@ -4704,13 +4729,13 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D71" s="24">
         <v>107.8682</v>
@@ -4736,13 +4761,13 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D72" s="24">
         <v>112.411</v>
@@ -4768,13 +4793,13 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D73" s="24">
         <v>114.818</v>
@@ -4800,13 +4825,13 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D74" s="30">
         <v>118.71</v>
@@ -4832,13 +4857,13 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D75" s="30">
         <v>121.76</v>
@@ -4864,13 +4889,13 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D76" s="29">
         <v>127.6</v>
@@ -4896,13 +4921,13 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D77" s="24">
         <v>126.90447</v>
@@ -4926,13 +4951,13 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D78" s="24">
         <v>131.29300000000001</v>
@@ -4954,13 +4979,13 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D79" s="24">
         <v>132.90545</v>
@@ -4986,13 +5011,13 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D80" s="24">
         <v>137.327</v>
@@ -5014,13 +5039,13 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D81" s="24">
         <v>138.90549999999999</v>
@@ -5042,13 +5067,13 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D82" s="24">
         <v>141.11600000000001</v>
@@ -5073,10 +5098,10 @@
         <v>12</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D83" s="24">
         <v>140.90764999999999</v>
@@ -5098,13 +5123,13 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D84" s="24">
         <v>144.24</v>
@@ -5126,13 +5151,13 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D85" s="24">
         <v>146.9151</v>
@@ -5154,13 +5179,13 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B86" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D86" s="24">
         <v>150.36000000000001</v>
@@ -5182,13 +5207,13 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B87" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D87" s="24">
         <v>151.964</v>
@@ -5210,13 +5235,13 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B88" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D88" s="26">
         <v>157.25</v>
@@ -5238,13 +5263,13 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B89" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D89" s="24">
         <v>158.92534000000001</v>
@@ -5266,13 +5291,13 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D90" s="29">
         <v>162.5</v>
@@ -5294,13 +5319,13 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B91" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D91" s="24">
         <v>164.93031999999999</v>
@@ -5322,13 +5347,13 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B92" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D92" s="24">
         <v>167.25899999999999</v>
@@ -5350,13 +5375,13 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="24">
         <v>168.93421000000001</v>
@@ -5378,13 +5403,13 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="26">
         <v>173.04</v>
@@ -5406,13 +5431,13 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D95" s="24">
         <v>174.96700000000001</v>
@@ -5434,13 +5459,13 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="26">
         <v>178.49</v>
@@ -5462,13 +5487,13 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B97" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="24">
         <v>180.9479</v>
@@ -5492,13 +5517,13 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B98" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D98" s="24">
         <v>183.84</v>
@@ -5522,13 +5547,13 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="24">
         <v>186.20699999999999</v>
@@ -5550,13 +5575,13 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D100" s="24">
         <v>190.23</v>
@@ -5580,13 +5605,13 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D101" s="24">
         <v>192.21700000000001</v>
@@ -5610,13 +5635,13 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D102" s="24">
         <v>195.078</v>
@@ -5642,13 +5667,13 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D103" s="24">
         <v>196.96654000000001</v>
@@ -5674,13 +5699,13 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D104" s="24">
         <v>200.59</v>
@@ -5702,13 +5727,13 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D105" s="24">
         <v>204.38329999999999</v>
@@ -5732,13 +5757,13 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D106" s="24">
         <v>207.2</v>
@@ -5764,13 +5789,13 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D107" s="24">
         <v>208.98038</v>
@@ -5794,13 +5819,13 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D108" s="24">
         <v>208.98240000000001</v>
@@ -5822,13 +5847,13 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D109" s="24">
         <v>209.9871</v>
@@ -5846,13 +5871,13 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D110" s="24">
         <v>222.01759999999999</v>
@@ -5874,13 +5899,13 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D111" s="24">
         <v>223.0197</v>
@@ -5900,13 +5925,13 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D112" s="24">
         <v>226.02539999999999</v>
@@ -5928,13 +5953,13 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B113" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D113" s="24">
         <v>227.02780000000001</v>
@@ -5956,13 +5981,13 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D114" s="24">
         <v>232.03809999999999</v>
@@ -5986,13 +6011,13 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D115" s="24">
         <v>231.03587999999999</v>
@@ -6014,13 +6039,13 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D116" s="24">
         <v>238.02891</v>
@@ -6042,13 +6067,13 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D117" s="24">
         <v>237.04820000000001</v>
@@ -6070,13 +6095,13 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D118" s="24">
         <v>244.0642</v>
@@ -6098,13 +6123,13 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D119" s="24">
         <v>243.06139999999999</v>
@@ -6124,13 +6149,13 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D120" s="24">
         <v>247.0703</v>
@@ -6150,13 +6175,13 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D121" s="24">
         <v>247.0703</v>
@@ -6176,13 +6201,13 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D122" s="24">
         <v>251.0796</v>
@@ -6202,13 +6227,13 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D123" s="24">
         <v>252.0829</v>
@@ -6222,13 +6247,13 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D124" s="24">
         <v>257.0951</v>
@@ -6242,13 +6267,13 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D125" s="24">
         <v>258.09859999999998</v>
@@ -6262,13 +6287,13 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D126" s="24">
         <v>259.10090000000002</v>
@@ -6282,13 +6307,13 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D127" s="24">
         <v>262.11</v>
@@ -6302,13 +6327,13 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D128" s="24">
         <v>261.10890000000001</v>
@@ -6322,13 +6347,13 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D129" s="24">
         <v>262.11439999999999</v>
@@ -6342,13 +6367,13 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B130" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D130" s="24">
         <v>263.11860000000001</v>
@@ -6362,13 +6387,13 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D131" s="24">
         <v>262.12310000000002</v>
@@ -6382,13 +6407,13 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D132" s="24">
         <v>265.13060000000002</v>
@@ -6402,13 +6427,13 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D133" s="24">
         <v>266.13780000000003</v>
@@ -6443,7 +6468,7 @@
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -6453,7 +6478,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
@@ -6463,7 +6488,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="1"/>
@@ -6484,7 +6509,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="1"/>
@@ -6497,13 +6522,13 @@
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="1"/>
@@ -6542,7 +6567,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -6574,7 +6599,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -6598,31 +6623,31 @@
     <row r="7" spans="1:11" ht="12" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="I7" s="46" t="s">
-        <v>289</v>
-      </c>
       <c r="J7" s="55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6654,7 +6679,7 @@
         <v>13.61</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6686,7 +6711,7 @@
         <v>13.07</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6718,7 +6743,7 @@
         <v>12.57</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6750,7 +6775,7 @@
         <v>12.1</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6782,7 +6807,7 @@
         <v>11.66</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6814,7 +6839,7 @@
         <v>11.24</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6846,7 +6871,7 @@
         <v>10.85</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6878,7 +6903,7 @@
         <v>10.47</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6910,7 +6935,7 @@
         <v>10.119999999999999</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6942,7 +6967,7 @@
         <v>9.7850000000000001</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6974,7 +6999,7 @@
         <v>9.4659999999999993</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7006,7 +7031,7 @@
         <v>9.1639999999999997</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -7038,7 +7063,7 @@
         <v>8.8759999999999994</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -7070,7 +7095,7 @@
         <v>8.6029999999999998</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -7102,7 +7127,7 @@
         <v>8.3420000000000005</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -7134,7 +7159,7 @@
         <v>8.093</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -7166,7 +7191,7 @@
         <v>7.8559999999999999</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -7198,7 +7223,7 @@
         <v>7.63</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -7230,7 +7255,7 @@
         <v>7.4139999999999997</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -7262,7 +7287,7 @@
         <v>7.2069999999999999</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -7294,7 +7319,7 @@
         <v>7.0090000000000003</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -7326,7 +7351,7 @@
         <v>6.6379999999999999</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -7358,7 +7383,7 @@
         <v>6.2969999999999997</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -7390,7 +7415,7 @@
         <v>6.1370000000000005</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -7422,7 +7447,7 @@
         <v>5.9829999999999997</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -7454,7 +7479,7 @@
         <v>5.6920000000000002</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -7486,7 +7511,7 @@
         <v>5.4240000000000004</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -7518,7 +7543,7 @@
         <v>5.1749999999999998</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -7550,7 +7575,7 @@
         <v>4.9429999999999996</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -7582,7 +7607,7 @@
         <v>4.7279999999999998</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -7614,7 +7639,7 @@
         <v>4.5270000000000001</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -7646,7 +7671,7 @@
         <v>4.34</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -7678,7 +7703,7 @@
         <v>4.1639999999999997</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -7710,7 +7735,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -7742,7 +7767,7 @@
         <v>3.8460000000000001</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -7774,7 +7799,7 @@
         <v>3.702</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -7806,7 +7831,7 @@
         <v>3.5659999999999998</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -7838,7 +7863,7 @@
         <v>3.2589999999999999</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -7870,7 +7895,7 @@
         <v>2.9940000000000002</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -7902,7 +7927,7 @@
         <v>2.7639999999999998</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -7934,7 +7959,7 @@
         <v>2.5619999999999998</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -7966,7 +7991,7 @@
         <v>2.3839999999999999</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -7998,7 +8023,7 @@
         <v>2.2269999999999999</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -8030,7 +8055,7 @@
         <v>2.0880000000000001</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -8062,7 +8087,7 @@
         <v>1.964</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -8094,7 +8119,7 @@
         <v>1.853</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -8126,7 +8151,7 @@
         <v>1.7609999999999999</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -8154,7 +8179,7 @@
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -8182,7 +8207,7 @@
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -8210,7 +8235,7 @@
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -8238,7 +8263,7 @@
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -8266,7 +8291,7 @@
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -8294,7 +8319,7 @@
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -8322,7 +8347,7 @@
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -8350,7 +8375,7 @@
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -8378,7 +8403,7 @@
       </c>
       <c r="I63" s="4"/>
       <c r="J63" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -8406,7 +8431,7 @@
       </c>
       <c r="I64" s="4"/>
       <c r="J64" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -8434,7 +8459,7 @@
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -8462,7 +8487,7 @@
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -8490,7 +8515,7 @@
       </c>
       <c r="I67" s="4"/>
       <c r="J67" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -8518,7 +8543,7 @@
       </c>
       <c r="I68" s="4"/>
       <c r="J68" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -8546,7 +8571,7 @@
       </c>
       <c r="I69" s="4"/>
       <c r="J69" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -8574,7 +8599,7 @@
       </c>
       <c r="I70" s="4"/>
       <c r="J70" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -8602,7 +8627,7 @@
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -8630,7 +8655,7 @@
       </c>
       <c r="I72" s="4"/>
       <c r="J72" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -8658,7 +8683,7 @@
       </c>
       <c r="I73" s="4"/>
       <c r="J73" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -8686,7 +8711,7 @@
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -8714,7 +8739,7 @@
       </c>
       <c r="I75" s="4"/>
       <c r="J75" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -8742,7 +8767,7 @@
       </c>
       <c r="I76" s="4"/>
       <c r="J76" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -8770,7 +8795,7 @@
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -8798,7 +8823,7 @@
       </c>
       <c r="I78" s="4"/>
       <c r="J78" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -8826,7 +8851,7 @@
       </c>
       <c r="I79" s="4"/>
       <c r="J79" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -8854,7 +8879,7 @@
       </c>
       <c r="I80" s="4"/>
       <c r="J80" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -8882,7 +8907,7 @@
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -8910,7 +8935,7 @@
       </c>
       <c r="I82" s="4"/>
       <c r="J82" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -8938,7 +8963,7 @@
       </c>
       <c r="I83" s="4"/>
       <c r="J83" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -8966,7 +8991,7 @@
       </c>
       <c r="I84" s="4"/>
       <c r="J84" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -8994,7 +9019,7 @@
       </c>
       <c r="I85" s="4"/>
       <c r="J85" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -9022,7 +9047,7 @@
       </c>
       <c r="I86" s="4"/>
       <c r="J86" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -9050,7 +9075,7 @@
       </c>
       <c r="I87" s="4"/>
       <c r="J87" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -9078,7 +9103,7 @@
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -9106,7 +9131,7 @@
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -9134,7 +9159,7 @@
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -9162,7 +9187,7 @@
       </c>
       <c r="I91" s="4"/>
       <c r="J91" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -9190,7 +9215,7 @@
       </c>
       <c r="I92" s="4"/>
       <c r="J92" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -9218,7 +9243,7 @@
       </c>
       <c r="I93" s="4"/>
       <c r="J93" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -9246,7 +9271,7 @@
       </c>
       <c r="I94" s="4"/>
       <c r="J94" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -9274,7 +9299,7 @@
       </c>
       <c r="I95" s="4"/>
       <c r="J95" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -9302,7 +9327,7 @@
       </c>
       <c r="I96" s="4"/>
       <c r="J96" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -9330,7 +9355,7 @@
       </c>
       <c r="I97" s="4"/>
       <c r="J97" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -9358,7 +9383,7 @@
       </c>
       <c r="I98" s="4"/>
       <c r="J98" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -9386,7 +9411,7 @@
       </c>
       <c r="I99" s="4"/>
       <c r="J99" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -9414,7 +9439,7 @@
       </c>
       <c r="I100" s="4"/>
       <c r="J100" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -9442,7 +9467,7 @@
       </c>
       <c r="I101" s="4"/>
       <c r="J101" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -9470,7 +9495,7 @@
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -9498,7 +9523,7 @@
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -9526,7 +9551,7 @@
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -9554,7 +9579,7 @@
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -9582,7 +9607,7 @@
       </c>
       <c r="I106" s="4"/>
       <c r="J106" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -9610,7 +9635,7 @@
       </c>
       <c r="I107" s="4"/>
       <c r="J107" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -9638,7 +9663,7 @@
       </c>
       <c r="I108" s="4"/>
       <c r="J108" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -9666,7 +9691,7 @@
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -9694,7 +9719,7 @@
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -9722,7 +9747,7 @@
       </c>
       <c r="I111" s="4"/>
       <c r="J111" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -9750,7 +9775,7 @@
       </c>
       <c r="I112" s="4"/>
       <c r="J112" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -9778,7 +9803,7 @@
       </c>
       <c r="I113" s="4"/>
       <c r="J113" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -9806,7 +9831,7 @@
       </c>
       <c r="I114" s="4"/>
       <c r="J114" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -9834,7 +9859,7 @@
       </c>
       <c r="I115" s="4"/>
       <c r="J115" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -9862,7 +9887,7 @@
       </c>
       <c r="I116" s="4"/>
       <c r="J116" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -9890,7 +9915,7 @@
       </c>
       <c r="I117" s="4"/>
       <c r="J117" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -9918,7 +9943,7 @@
       </c>
       <c r="I118" s="4"/>
       <c r="J118" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -9946,7 +9971,7 @@
       </c>
       <c r="I119" s="4"/>
       <c r="J119" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -9974,7 +9999,7 @@
       </c>
       <c r="I120" s="4"/>
       <c r="J120" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -10002,7 +10027,7 @@
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -10030,7 +10055,7 @@
       </c>
       <c r="I122" s="4"/>
       <c r="J122" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -10058,7 +10083,7 @@
       </c>
       <c r="I123" s="4"/>
       <c r="J123" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -10086,7 +10111,7 @@
       </c>
       <c r="I124" s="4"/>
       <c r="J124" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -10114,7 +10139,7 @@
       </c>
       <c r="I125" s="4"/>
       <c r="J125" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -10142,7 +10167,7 @@
       </c>
       <c r="I126" s="4"/>
       <c r="J126" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -10170,7 +10195,7 @@
       </c>
       <c r="I127" s="4"/>
       <c r="J127" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -10198,7 +10223,7 @@
       </c>
       <c r="I128" s="4"/>
       <c r="J128" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -10226,7 +10251,7 @@
       </c>
       <c r="I129" s="4"/>
       <c r="J129" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -10254,7 +10279,7 @@
       </c>
       <c r="I130" s="4"/>
       <c r="J130" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -10282,7 +10307,7 @@
       </c>
       <c r="I131" s="4"/>
       <c r="J131" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -10310,7 +10335,7 @@
       </c>
       <c r="I132" s="4"/>
       <c r="J132" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -10338,7 +10363,7 @@
       </c>
       <c r="I133" s="4"/>
       <c r="J133" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -10366,7 +10391,7 @@
       </c>
       <c r="I134" s="4"/>
       <c r="J134" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -10394,7 +10419,7 @@
       </c>
       <c r="I135" s="4"/>
       <c r="J135" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -10422,7 +10447,7 @@
       </c>
       <c r="I136" s="4"/>
       <c r="J136" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -10450,7 +10475,7 @@
       </c>
       <c r="I137" s="4"/>
       <c r="J137" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -10478,7 +10503,7 @@
       </c>
       <c r="I138" s="4"/>
       <c r="J138" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -10506,7 +10531,7 @@
       </c>
       <c r="I139" s="4"/>
       <c r="J139" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -10534,7 +10559,7 @@
       </c>
       <c r="I140" s="4"/>
       <c r="J140" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -10562,7 +10587,7 @@
       </c>
       <c r="I141" s="4"/>
       <c r="J141" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -10590,7 +10615,7 @@
       </c>
       <c r="I142" s="4"/>
       <c r="J142" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -10618,7 +10643,7 @@
       </c>
       <c r="I143" s="4"/>
       <c r="J143" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -10646,7 +10671,7 @@
       </c>
       <c r="I144" s="4"/>
       <c r="J144" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -10674,7 +10699,7 @@
       </c>
       <c r="I145" s="4"/>
       <c r="J145" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -10702,7 +10727,7 @@
       </c>
       <c r="I146" s="4"/>
       <c r="J146" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -10730,7 +10755,7 @@
       </c>
       <c r="I147" s="4"/>
       <c r="J147" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -10758,7 +10783,7 @@
       </c>
       <c r="I148" s="4"/>
       <c r="J148" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -10786,7 +10811,7 @@
       </c>
       <c r="I149" s="4"/>
       <c r="J149" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -10814,7 +10839,7 @@
       </c>
       <c r="I150" s="4"/>
       <c r="J150" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -10842,7 +10867,7 @@
       </c>
       <c r="I151" s="4"/>
       <c r="J151" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -10870,7 +10895,7 @@
       </c>
       <c r="I152" s="4"/>
       <c r="J152" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -10898,7 +10923,7 @@
       </c>
       <c r="I153" s="4"/>
       <c r="J153" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -10926,7 +10951,7 @@
       </c>
       <c r="I154" s="4"/>
       <c r="J154" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -10954,7 +10979,7 @@
       </c>
       <c r="I155" s="4"/>
       <c r="J155" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -10982,7 +11007,7 @@
       </c>
       <c r="I156" s="4"/>
       <c r="J156" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -11010,7 +11035,7 @@
       </c>
       <c r="I157" s="4"/>
       <c r="J157" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -11038,7 +11063,7 @@
       </c>
       <c r="I158" s="4"/>
       <c r="J158" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -11066,7 +11091,7 @@
       </c>
       <c r="I159" s="4"/>
       <c r="J159" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -11094,7 +11119,7 @@
       </c>
       <c r="I160" s="4"/>
       <c r="J160" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -11122,7 +11147,7 @@
       </c>
       <c r="I161" s="4"/>
       <c r="J161" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -11150,7 +11175,7 @@
       </c>
       <c r="I162" s="4"/>
       <c r="J162" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -11178,7 +11203,7 @@
       </c>
       <c r="I163" s="4"/>
       <c r="J163" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -11206,7 +11231,7 @@
       </c>
       <c r="I164" s="4"/>
       <c r="J164" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -11234,7 +11259,7 @@
       </c>
       <c r="I165" s="4"/>
       <c r="J165" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -11262,7 +11287,7 @@
       </c>
       <c r="I166" s="4"/>
       <c r="J166" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -11290,7 +11315,7 @@
       </c>
       <c r="I167" s="4"/>
       <c r="J167" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -11318,7 +11343,7 @@
       </c>
       <c r="I168" s="4"/>
       <c r="J168" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -11346,7 +11371,7 @@
       </c>
       <c r="I169" s="4"/>
       <c r="J169" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -11374,7 +11399,7 @@
       </c>
       <c r="I170" s="4"/>
       <c r="J170" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -11402,7 +11427,7 @@
       </c>
       <c r="I171" s="4"/>
       <c r="J171" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -11430,7 +11455,7 @@
       </c>
       <c r="I172" s="4"/>
       <c r="J172" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -11458,7 +11483,7 @@
       </c>
       <c r="I173" s="4"/>
       <c r="J173" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -11486,7 +11511,7 @@
       </c>
       <c r="I174" s="4"/>
       <c r="J174" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -11514,7 +11539,7 @@
       </c>
       <c r="I175" s="4"/>
       <c r="J175" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -11542,7 +11567,7 @@
       </c>
       <c r="I176" s="4"/>
       <c r="J176" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -11570,7 +11595,7 @@
       </c>
       <c r="I177" s="4"/>
       <c r="J177" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -11598,7 +11623,7 @@
       </c>
       <c r="I178" s="4"/>
       <c r="J178" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -11626,7 +11651,7 @@
       </c>
       <c r="I179" s="4"/>
       <c r="J179" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -11654,7 +11679,7 @@
       </c>
       <c r="I180" s="4"/>
       <c r="J180" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -11682,7 +11707,7 @@
       </c>
       <c r="I181" s="4"/>
       <c r="J181" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -11710,7 +11735,7 @@
       </c>
       <c r="I182" s="4"/>
       <c r="J182" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -11738,7 +11763,7 @@
       </c>
       <c r="I183" s="4"/>
       <c r="J183" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -11766,7 +11791,7 @@
       </c>
       <c r="I184" s="4"/>
       <c r="J184" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -11794,7 +11819,7 @@
       </c>
       <c r="I185" s="4"/>
       <c r="J185" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -11822,7 +11847,7 @@
       </c>
       <c r="I186" s="4"/>
       <c r="J186" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -11850,7 +11875,7 @@
       </c>
       <c r="I187" s="4"/>
       <c r="J187" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -11878,7 +11903,7 @@
       </c>
       <c r="I188" s="4"/>
       <c r="J188" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -11906,7 +11931,7 @@
       </c>
       <c r="I189" s="4"/>
       <c r="J189" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -11934,7 +11959,7 @@
       </c>
       <c r="I190" s="4"/>
       <c r="J190" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -11962,7 +11987,7 @@
       </c>
       <c r="I191" s="4"/>
       <c r="J191" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -11990,7 +12015,7 @@
       </c>
       <c r="I192" s="4"/>
       <c r="J192" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -12018,7 +12043,7 @@
       </c>
       <c r="I193" s="4"/>
       <c r="J193" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -12046,7 +12071,7 @@
       </c>
       <c r="I194" s="4"/>
       <c r="J194" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -12074,7 +12099,7 @@
       </c>
       <c r="I195" s="4"/>
       <c r="J195" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -12102,7 +12127,7 @@
       </c>
       <c r="I196" s="4"/>
       <c r="J196" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -12130,7 +12155,7 @@
       </c>
       <c r="I197" s="4"/>
       <c r="J197" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -12158,7 +12183,7 @@
       </c>
       <c r="I198" s="4"/>
       <c r="J198" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -12186,7 +12211,7 @@
       </c>
       <c r="I199" s="4"/>
       <c r="J199" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -12214,7 +12239,7 @@
       </c>
       <c r="I200" s="4"/>
       <c r="J200" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -12242,7 +12267,7 @@
       </c>
       <c r="I201" s="4"/>
       <c r="J201" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -12270,7 +12295,7 @@
       </c>
       <c r="I202" s="4"/>
       <c r="J202" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -12298,7 +12323,7 @@
       </c>
       <c r="I203" s="4"/>
       <c r="J203" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -12326,7 +12351,7 @@
       </c>
       <c r="I204" s="4"/>
       <c r="J204" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -12354,7 +12379,7 @@
       </c>
       <c r="I205" s="4"/>
       <c r="J205" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -12382,7 +12407,7 @@
       </c>
       <c r="I206" s="4"/>
       <c r="J206" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -12410,7 +12435,7 @@
       </c>
       <c r="I207" s="4"/>
       <c r="J207" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -12438,7 +12463,7 @@
       </c>
       <c r="I208" s="4"/>
       <c r="J208" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -12466,7 +12491,7 @@
       </c>
       <c r="I209" s="4"/>
       <c r="J209" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -12494,7 +12519,7 @@
       </c>
       <c r="I210" s="4"/>
       <c r="J210" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -12522,7 +12547,7 @@
       </c>
       <c r="I211" s="4"/>
       <c r="J211" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -12550,7 +12575,7 @@
       </c>
       <c r="I212" s="4"/>
       <c r="J212" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -12578,7 +12603,7 @@
       </c>
       <c r="I213" s="4"/>
       <c r="J213" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -12606,7 +12631,7 @@
       </c>
       <c r="I214" s="4"/>
       <c r="J214" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -12634,7 +12659,7 @@
       </c>
       <c r="I215" s="4"/>
       <c r="J215" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -12662,7 +12687,7 @@
       </c>
       <c r="I216" s="4"/>
       <c r="J216" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -12690,7 +12715,7 @@
       </c>
       <c r="I217" s="4"/>
       <c r="J217" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -12718,7 +12743,7 @@
       </c>
       <c r="I218" s="4"/>
       <c r="J218" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -12746,7 +12771,7 @@
       </c>
       <c r="I219" s="4"/>
       <c r="J219" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -12774,7 +12799,7 @@
       </c>
       <c r="I220" s="4"/>
       <c r="J220" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -12802,7 +12827,7 @@
       </c>
       <c r="I221" s="4"/>
       <c r="J221" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -12830,7 +12855,7 @@
       </c>
       <c r="I222" s="4"/>
       <c r="J222" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -12858,7 +12883,7 @@
       </c>
       <c r="I223" s="4"/>
       <c r="J223" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -12886,7 +12911,7 @@
       </c>
       <c r="I224" s="4"/>
       <c r="J224" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -12914,7 +12939,7 @@
       </c>
       <c r="I225" s="4"/>
       <c r="J225" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -12942,7 +12967,7 @@
       </c>
       <c r="I226" s="4"/>
       <c r="J226" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -12970,7 +12995,7 @@
       </c>
       <c r="I227" s="4"/>
       <c r="J227" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -12998,7 +13023,7 @@
       </c>
       <c r="I228" s="4"/>
       <c r="J228" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -13026,7 +13051,7 @@
       </c>
       <c r="I229" s="4"/>
       <c r="J229" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -13054,7 +13079,7 @@
       </c>
       <c r="I230" s="4"/>
       <c r="J230" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -13082,7 +13107,7 @@
       </c>
       <c r="I231" s="4"/>
       <c r="J231" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -13110,7 +13135,7 @@
       </c>
       <c r="I232" s="4"/>
       <c r="J232" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -13138,7 +13163,7 @@
       </c>
       <c r="I233" s="4"/>
       <c r="J233" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -13166,7 +13191,7 @@
       </c>
       <c r="I234" s="4"/>
       <c r="J234" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -13194,7 +13219,7 @@
       </c>
       <c r="I235" s="4"/>
       <c r="J235" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -13222,7 +13247,7 @@
       </c>
       <c r="I236" s="4"/>
       <c r="J236" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -13250,7 +13275,7 @@
       </c>
       <c r="I237" s="4"/>
       <c r="J237" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -13278,7 +13303,7 @@
       </c>
       <c r="I238" s="4"/>
       <c r="J238" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -13306,7 +13331,7 @@
       </c>
       <c r="I239" s="4"/>
       <c r="J239" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -13334,7 +13359,7 @@
       </c>
       <c r="I240" s="4"/>
       <c r="J240" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -13362,7 +13387,7 @@
       </c>
       <c r="I241" s="4"/>
       <c r="J241" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -13390,7 +13415,7 @@
       </c>
       <c r="I242" s="4"/>
       <c r="J242" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -13418,7 +13443,7 @@
       </c>
       <c r="I243" s="4"/>
       <c r="J243" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -13446,7 +13471,7 @@
       </c>
       <c r="I244" s="4"/>
       <c r="J244" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -13474,7 +13499,7 @@
       </c>
       <c r="I245" s="4"/>
       <c r="J245" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -13502,7 +13527,7 @@
       </c>
       <c r="I246" s="4"/>
       <c r="J246" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -13530,7 +13555,7 @@
       </c>
       <c r="I247" s="4"/>
       <c r="J247" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -13558,7 +13583,7 @@
       </c>
       <c r="I248" s="4"/>
       <c r="J248" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -13586,7 +13611,7 @@
       </c>
       <c r="I249" s="4"/>
       <c r="J249" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -13614,7 +13639,7 @@
       </c>
       <c r="I250" s="4"/>
       <c r="J250" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -13642,7 +13667,7 @@
       </c>
       <c r="I251" s="4"/>
       <c r="J251" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -13670,7 +13695,7 @@
       </c>
       <c r="I252" s="4"/>
       <c r="J252" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -13698,7 +13723,7 @@
       </c>
       <c r="I253" s="4"/>
       <c r="J253" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -13726,7 +13751,7 @@
       </c>
       <c r="I254" s="4"/>
       <c r="J254" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -13754,7 +13779,7 @@
       </c>
       <c r="I255" s="4"/>
       <c r="J255" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:10">
@@ -13782,7 +13807,7 @@
       </c>
       <c r="I256" s="4"/>
       <c r="J256" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="257" spans="1:10">
@@ -13810,7 +13835,7 @@
       </c>
       <c r="I257" s="4"/>
       <c r="J257" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -13838,7 +13863,7 @@
       </c>
       <c r="I258" s="4"/>
       <c r="J258" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="259" spans="1:10">
@@ -13866,7 +13891,7 @@
       </c>
       <c r="I259" s="4"/>
       <c r="J259" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="260" spans="1:10">
@@ -13894,7 +13919,7 @@
       </c>
       <c r="I260" s="4"/>
       <c r="J260" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="261" spans="1:10">
@@ -13922,7 +13947,7 @@
       </c>
       <c r="I261" s="4"/>
       <c r="J261" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="262" spans="1:10">
@@ -13950,7 +13975,7 @@
       </c>
       <c r="I262" s="4"/>
       <c r="J262" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="263" spans="1:10">
@@ -13978,7 +14003,7 @@
       </c>
       <c r="I263" s="4"/>
       <c r="J263" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -14006,7 +14031,7 @@
       </c>
       <c r="I264" s="4"/>
       <c r="J264" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="265" spans="1:10">
@@ -14034,7 +14059,7 @@
       </c>
       <c r="I265" s="4"/>
       <c r="J265" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -14062,7 +14087,7 @@
       </c>
       <c r="I266" s="4"/>
       <c r="J266" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -14090,7 +14115,7 @@
       </c>
       <c r="I267" s="4"/>
       <c r="J267" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="268" spans="1:10">
@@ -14118,7 +14143,7 @@
       </c>
       <c r="I268" s="4"/>
       <c r="J268" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="269" spans="1:10">
@@ -14146,7 +14171,7 @@
       </c>
       <c r="I269" s="4"/>
       <c r="J269" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="270" spans="1:10">
@@ -14174,7 +14199,7 @@
       </c>
       <c r="I270" s="4"/>
       <c r="J270" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="271" spans="1:10">
@@ -14202,7 +14227,7 @@
       </c>
       <c r="I271" s="4"/>
       <c r="J271" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="272" spans="1:10">
@@ -14230,7 +14255,7 @@
       </c>
       <c r="I272" s="4"/>
       <c r="J272" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -14258,7 +14283,7 @@
       </c>
       <c r="I273" s="4"/>
       <c r="J273" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:10">
@@ -14286,7 +14311,7 @@
       </c>
       <c r="I274" s="4"/>
       <c r="J274" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -14314,7 +14339,7 @@
       </c>
       <c r="I275" s="4"/>
       <c r="J275" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="276" spans="1:10">
@@ -14342,7 +14367,7 @@
       </c>
       <c r="I276" s="4"/>
       <c r="J276" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -14370,7 +14395,7 @@
       </c>
       <c r="I277" s="4"/>
       <c r="J277" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="278" spans="1:10">
@@ -14398,7 +14423,7 @@
       </c>
       <c r="I278" s="4"/>
       <c r="J278" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="279" spans="1:10">
@@ -14426,7 +14451,7 @@
       </c>
       <c r="I279" s="4"/>
       <c r="J279" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="280" spans="1:10">
@@ -14454,7 +14479,7 @@
       </c>
       <c r="I280" s="4"/>
       <c r="J280" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="281" spans="1:10">
@@ -14482,7 +14507,7 @@
       </c>
       <c r="I281" s="4"/>
       <c r="J281" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -14510,7 +14535,7 @@
       </c>
       <c r="I282" s="4"/>
       <c r="J282" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -14538,7 +14563,7 @@
       </c>
       <c r="I283" s="4"/>
       <c r="J283" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="284" spans="1:10">
@@ -14566,7 +14591,7 @@
       </c>
       <c r="I284" s="4"/>
       <c r="J284" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="285" spans="1:10">
@@ -14594,7 +14619,7 @@
       </c>
       <c r="I285" s="4"/>
       <c r="J285" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -14622,7 +14647,7 @@
       </c>
       <c r="I286" s="4"/>
       <c r="J286" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="287" spans="1:10">
@@ -14650,7 +14675,7 @@
       </c>
       <c r="I287" s="4"/>
       <c r="J287" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -14678,7 +14703,7 @@
       </c>
       <c r="I288" s="4"/>
       <c r="J288" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="289" spans="1:10">
@@ -14706,7 +14731,7 @@
       </c>
       <c r="I289" s="4"/>
       <c r="J289" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="290" spans="1:10">
@@ -14734,7 +14759,7 @@
       </c>
       <c r="I290" s="4"/>
       <c r="J290" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -14762,7 +14787,7 @@
       </c>
       <c r="I291" s="4"/>
       <c r="J291" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="292" spans="1:10">
@@ -14790,7 +14815,7 @@
       </c>
       <c r="I292" s="4"/>
       <c r="J292" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="293" spans="1:10">
@@ -14818,7 +14843,7 @@
       </c>
       <c r="I293" s="4"/>
       <c r="J293" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="294" spans="1:10">
@@ -14846,7 +14871,7 @@
       </c>
       <c r="I294" s="4"/>
       <c r="J294" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="295" spans="1:10">
@@ -14874,7 +14899,7 @@
       </c>
       <c r="I295" s="4"/>
       <c r="J295" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="296" spans="1:10">
@@ -14902,7 +14927,7 @@
       </c>
       <c r="I296" s="4"/>
       <c r="J296" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="297" spans="1:10">
@@ -14930,7 +14955,7 @@
       </c>
       <c r="I297" s="4"/>
       <c r="J297" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="298" spans="1:10">
@@ -14958,7 +14983,7 @@
       </c>
       <c r="I298" s="4"/>
       <c r="J298" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="299" spans="1:10">
@@ -14986,7 +15011,7 @@
       </c>
       <c r="I299" s="4"/>
       <c r="J299" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="300" spans="1:10">
@@ -15014,7 +15039,7 @@
       </c>
       <c r="I300" s="4"/>
       <c r="J300" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="301" spans="1:10">
@@ -15042,7 +15067,7 @@
       </c>
       <c r="I301" s="4"/>
       <c r="J301" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="302" spans="1:10">
@@ -15070,7 +15095,7 @@
       </c>
       <c r="I302" s="4"/>
       <c r="J302" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="303" spans="1:10">
@@ -15098,7 +15123,7 @@
       </c>
       <c r="I303" s="4"/>
       <c r="J303" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -15126,7 +15151,7 @@
       </c>
       <c r="I304" s="4"/>
       <c r="J304" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="305" spans="1:10">
@@ -15154,7 +15179,7 @@
       </c>
       <c r="I305" s="4"/>
       <c r="J305" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="306" spans="1:10">
@@ -15182,7 +15207,7 @@
       </c>
       <c r="I306" s="4"/>
       <c r="J306" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -15210,7 +15235,7 @@
       </c>
       <c r="I307" s="4"/>
       <c r="J307" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -15238,7 +15263,7 @@
       </c>
       <c r="I308" s="4"/>
       <c r="J308" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="309" spans="1:10">
@@ -15266,7 +15291,7 @@
       </c>
       <c r="I309" s="4"/>
       <c r="J309" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="310" spans="1:10">
@@ -15294,7 +15319,7 @@
       </c>
       <c r="I310" s="4"/>
       <c r="J310" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -15322,7 +15347,7 @@
       </c>
       <c r="I311" s="4"/>
       <c r="J311" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="312" spans="1:10">
@@ -15350,7 +15375,7 @@
       </c>
       <c r="I312" s="4"/>
       <c r="J312" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="313" spans="1:10">
@@ -15378,7 +15403,7 @@
       </c>
       <c r="I313" s="4"/>
       <c r="J313" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="314" spans="1:10">
@@ -15406,7 +15431,7 @@
       </c>
       <c r="I314" s="4"/>
       <c r="J314" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -15434,7 +15459,7 @@
       </c>
       <c r="I315" s="4"/>
       <c r="J315" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -15462,7 +15487,7 @@
       </c>
       <c r="I316" s="4"/>
       <c r="J316" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -15490,7 +15515,7 @@
       </c>
       <c r="I317" s="4"/>
       <c r="J317" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="318" spans="1:10">
@@ -15518,7 +15543,7 @@
       </c>
       <c r="I318" s="4"/>
       <c r="J318" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="319" spans="1:10">
@@ -15546,7 +15571,7 @@
       </c>
       <c r="I319" s="4"/>
       <c r="J319" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="320" spans="1:10">
@@ -15574,7 +15599,7 @@
       </c>
       <c r="I320" s="4"/>
       <c r="J320" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="321" spans="1:10">
@@ -15602,7 +15627,7 @@
       </c>
       <c r="I321" s="4"/>
       <c r="J321" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="322" spans="1:10">
@@ -15630,7 +15655,7 @@
       </c>
       <c r="I322" s="4"/>
       <c r="J322" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="323" spans="1:10">
@@ -15658,7 +15683,7 @@
       </c>
       <c r="I323" s="4"/>
       <c r="J323" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="324" spans="1:10">
@@ -15686,7 +15711,7 @@
       </c>
       <c r="I324" s="4"/>
       <c r="J324" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="325" spans="1:10">
@@ -15714,7 +15739,7 @@
       </c>
       <c r="I325" s="4"/>
       <c r="J325" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="326" spans="1:10">
@@ -15742,7 +15767,7 @@
       </c>
       <c r="I326" s="4"/>
       <c r="J326" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -15770,7 +15795,7 @@
       </c>
       <c r="I327" s="4"/>
       <c r="J327" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="328" spans="1:10">
@@ -15798,7 +15823,7 @@
       </c>
       <c r="I328" s="4"/>
       <c r="J328" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -15826,7 +15851,7 @@
       </c>
       <c r="I329" s="4"/>
       <c r="J329" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="330" spans="1:10">
@@ -15854,7 +15879,7 @@
       </c>
       <c r="I330" s="4"/>
       <c r="J330" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="331" spans="1:10">
@@ -15882,7 +15907,7 @@
       </c>
       <c r="I331" s="4"/>
       <c r="J331" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="332" spans="1:10">
@@ -15910,7 +15935,7 @@
       </c>
       <c r="I332" s="4"/>
       <c r="J332" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="333" spans="1:10">
@@ -15938,7 +15963,7 @@
       </c>
       <c r="I333" s="4"/>
       <c r="J333" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="334" spans="1:10">
@@ -15966,7 +15991,7 @@
       </c>
       <c r="I334" s="4"/>
       <c r="J334" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="335" spans="1:10">
@@ -15994,7 +16019,7 @@
       </c>
       <c r="I335" s="4"/>
       <c r="J335" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="336" spans="1:10">
@@ -16022,7 +16047,7 @@
       </c>
       <c r="I336" s="4"/>
       <c r="J336" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="337" spans="1:10">
@@ -16050,7 +16075,7 @@
       </c>
       <c r="I337" s="4"/>
       <c r="J337" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="338" spans="1:10">
@@ -16078,7 +16103,7 @@
       </c>
       <c r="I338" s="4"/>
       <c r="J338" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="339" spans="1:10">
@@ -16106,7 +16131,7 @@
       </c>
       <c r="I339" s="4"/>
       <c r="J339" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="340" spans="1:10">
@@ -16134,7 +16159,7 @@
       </c>
       <c r="I340" s="4"/>
       <c r="J340" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="341" spans="1:10">
@@ -16162,7 +16187,7 @@
       </c>
       <c r="I341" s="4"/>
       <c r="J341" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="342" spans="1:10">
@@ -16190,7 +16215,7 @@
       </c>
       <c r="I342" s="4"/>
       <c r="J342" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="343" spans="1:10">
@@ -16218,7 +16243,7 @@
       </c>
       <c r="I343" s="4"/>
       <c r="J343" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="344" spans="1:10">
@@ -16246,7 +16271,7 @@
       </c>
       <c r="I344" s="4"/>
       <c r="J344" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="345" spans="1:10">
@@ -16274,7 +16299,7 @@
       </c>
       <c r="I345" s="4"/>
       <c r="J345" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="346" spans="1:10">
@@ -16302,7 +16327,7 @@
       </c>
       <c r="I346" s="4"/>
       <c r="J346" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="347" spans="1:10">
@@ -16330,7 +16355,7 @@
       </c>
       <c r="I347" s="4"/>
       <c r="J347" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="348" spans="1:10">
@@ -16358,7 +16383,7 @@
       </c>
       <c r="I348" s="4"/>
       <c r="J348" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="349" spans="1:10">
@@ -16386,7 +16411,7 @@
       </c>
       <c r="I349" s="4"/>
       <c r="J349" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="350" spans="1:10">
@@ -16414,7 +16439,7 @@
       </c>
       <c r="I350" s="4"/>
       <c r="J350" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="351" spans="1:10">
@@ -16442,7 +16467,7 @@
       </c>
       <c r="I351" s="4"/>
       <c r="J351" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="352" spans="1:10">
@@ -16470,7 +16495,7 @@
       </c>
       <c r="I352" s="4"/>
       <c r="J352" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="353" spans="1:10">
@@ -16498,7 +16523,7 @@
       </c>
       <c r="I353" s="4"/>
       <c r="J353" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="354" spans="1:10">
@@ -16526,7 +16551,7 @@
       </c>
       <c r="I354" s="4"/>
       <c r="J354" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="355" spans="1:10">
@@ -16554,7 +16579,7 @@
       </c>
       <c r="I355" s="4"/>
       <c r="J355" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="356" spans="1:10">
@@ -16582,7 +16607,7 @@
       </c>
       <c r="I356" s="4"/>
       <c r="J356" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="357" spans="1:10">
@@ -16610,7 +16635,7 @@
       </c>
       <c r="I357" s="4"/>
       <c r="J357" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="358" spans="1:10">
@@ -16638,7 +16663,7 @@
       </c>
       <c r="I358" s="4"/>
       <c r="J358" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="359" spans="1:10">
@@ -16666,7 +16691,7 @@
       </c>
       <c r="I359" s="4"/>
       <c r="J359" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="360" spans="1:10">
@@ -16694,7 +16719,7 @@
       </c>
       <c r="I360" s="4"/>
       <c r="J360" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="361" spans="1:10">
@@ -16722,7 +16747,7 @@
       </c>
       <c r="I361" s="4"/>
       <c r="J361" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="362" spans="1:10">
@@ -16750,7 +16775,7 @@
       </c>
       <c r="I362" s="4"/>
       <c r="J362" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="363" spans="1:10">
@@ -16778,7 +16803,7 @@
       </c>
       <c r="I363" s="4"/>
       <c r="J363" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="364" spans="1:10">
@@ -16806,7 +16831,7 @@
       </c>
       <c r="I364" s="4"/>
       <c r="J364" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="365" spans="1:10">
@@ -16834,7 +16859,7 @@
       </c>
       <c r="I365" s="4"/>
       <c r="J365" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="366" spans="1:10">
@@ -16862,7 +16887,7 @@
       </c>
       <c r="I366" s="4"/>
       <c r="J366" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="367" spans="1:10">
@@ -16890,7 +16915,7 @@
       </c>
       <c r="I367" s="4"/>
       <c r="J367" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="368" spans="1:10">
@@ -16918,7 +16943,7 @@
       </c>
       <c r="I368" s="4"/>
       <c r="J368" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="369" spans="1:10">
@@ -16946,7 +16971,7 @@
       </c>
       <c r="I369" s="4"/>
       <c r="J369" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="370" spans="1:10">
@@ -16974,7 +16999,7 @@
       </c>
       <c r="I370" s="4"/>
       <c r="J370" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="371" spans="1:10">
@@ -17002,7 +17027,7 @@
       </c>
       <c r="I371" s="4"/>
       <c r="J371" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="372" spans="1:10">
@@ -17030,7 +17055,7 @@
       </c>
       <c r="I372" s="4"/>
       <c r="J372" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="373" spans="1:10">
@@ -17058,7 +17083,7 @@
       </c>
       <c r="I373" s="4"/>
       <c r="J373" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="374" spans="1:10">
@@ -17086,7 +17111,7 @@
       </c>
       <c r="I374" s="4"/>
       <c r="J374" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="375" spans="1:10">
@@ -17114,7 +17139,7 @@
       </c>
       <c r="I375" s="4"/>
       <c r="J375" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="376" spans="1:10">
@@ -17142,7 +17167,7 @@
       </c>
       <c r="I376" s="4"/>
       <c r="J376" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="377" spans="1:10">
@@ -17170,7 +17195,7 @@
       </c>
       <c r="I377" s="4"/>
       <c r="J377" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="378" spans="1:10">
@@ -17198,7 +17223,7 @@
       </c>
       <c r="I378" s="4"/>
       <c r="J378" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="379" spans="1:10">
@@ -17226,7 +17251,7 @@
       </c>
       <c r="I379" s="4"/>
       <c r="J379" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="380" spans="1:10">
@@ -17254,7 +17279,7 @@
       </c>
       <c r="I380" s="4"/>
       <c r="J380" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="381" spans="1:10">
@@ -17282,7 +17307,7 @@
       </c>
       <c r="I381" s="4"/>
       <c r="J381" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="382" spans="1:10">
@@ -17310,7 +17335,7 @@
       </c>
       <c r="I382" s="4"/>
       <c r="J382" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="383" spans="1:10">
@@ -17338,7 +17363,7 @@
       </c>
       <c r="I383" s="4"/>
       <c r="J383" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="384" spans="1:10">
@@ -17366,7 +17391,7 @@
       </c>
       <c r="I384" s="4"/>
       <c r="J384" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="385" spans="1:10">
@@ -17394,7 +17419,7 @@
       </c>
       <c r="I385" s="4"/>
       <c r="J385" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="386" spans="1:10">
@@ -17422,7 +17447,7 @@
       </c>
       <c r="I386" s="4"/>
       <c r="J386" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="387" spans="1:10">
@@ -17450,7 +17475,7 @@
       </c>
       <c r="I387" s="4"/>
       <c r="J387" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="388" spans="1:10">
@@ -17478,7 +17503,7 @@
       </c>
       <c r="I388" s="4"/>
       <c r="J388" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="389" spans="1:10">
@@ -17506,7 +17531,7 @@
       </c>
       <c r="I389" s="4"/>
       <c r="J389" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="390" spans="1:10">
@@ -17534,7 +17559,7 @@
       </c>
       <c r="I390" s="4"/>
       <c r="J390" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="391" spans="1:10">
@@ -17562,7 +17587,7 @@
       </c>
       <c r="I391" s="4"/>
       <c r="J391" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="392" spans="1:10">
@@ -17590,7 +17615,7 @@
       </c>
       <c r="I392" s="4"/>
       <c r="J392" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="393" spans="1:10">
@@ -17618,7 +17643,7 @@
       </c>
       <c r="I393" s="4"/>
       <c r="J393" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="394" spans="1:10">
@@ -17646,7 +17671,7 @@
       </c>
       <c r="I394" s="4"/>
       <c r="J394" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="395" spans="1:10">
@@ -17674,7 +17699,7 @@
       </c>
       <c r="I395" s="4"/>
       <c r="J395" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="396" spans="1:10">
@@ -17702,7 +17727,7 @@
       </c>
       <c r="I396" s="4"/>
       <c r="J396" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="397" spans="1:10">
@@ -17730,7 +17755,7 @@
       </c>
       <c r="I397" s="4"/>
       <c r="J397" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="398" spans="1:10">
@@ -17758,7 +17783,7 @@
       </c>
       <c r="I398" s="4"/>
       <c r="J398" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="399" spans="1:10">
@@ -17786,7 +17811,7 @@
       </c>
       <c r="I399" s="4"/>
       <c r="J399" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="400" spans="1:10">
@@ -17814,7 +17839,7 @@
       </c>
       <c r="I400" s="4"/>
       <c r="J400" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="401" spans="1:10">
@@ -17842,7 +17867,7 @@
       </c>
       <c r="I401" s="4"/>
       <c r="J401" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="402" spans="1:10">
@@ -17870,7 +17895,7 @@
       </c>
       <c r="I402" s="4"/>
       <c r="J402" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="403" spans="1:10">
@@ -17898,7 +17923,7 @@
       </c>
       <c r="I403" s="4"/>
       <c r="J403" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="404" spans="1:10">
@@ -17926,7 +17951,7 @@
       </c>
       <c r="I404" s="4"/>
       <c r="J404" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="405" spans="1:10">
@@ -17954,7 +17979,7 @@
       </c>
       <c r="I405" s="4"/>
       <c r="J405" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="406" spans="1:10">
@@ -17982,7 +18007,7 @@
       </c>
       <c r="I406" s="4"/>
       <c r="J406" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="407" spans="1:10">
@@ -18010,7 +18035,7 @@
       </c>
       <c r="I407" s="4"/>
       <c r="J407" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="408" spans="1:10">
@@ -18038,7 +18063,7 @@
       </c>
       <c r="I408" s="4"/>
       <c r="J408" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="409" spans="1:10">
@@ -18066,7 +18091,7 @@
       </c>
       <c r="I409" s="4"/>
       <c r="J409" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="410" spans="1:10">
@@ -18094,7 +18119,7 @@
       </c>
       <c r="I410" s="4"/>
       <c r="J410" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="411" spans="1:10">
@@ -18122,7 +18147,7 @@
       </c>
       <c r="I411" s="4"/>
       <c r="J411" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="412" spans="1:10">
@@ -18150,7 +18175,7 @@
       </c>
       <c r="I412" s="4"/>
       <c r="J412" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="413" spans="1:10">
@@ -18178,7 +18203,7 @@
       </c>
       <c r="I413" s="4"/>
       <c r="J413" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="414" spans="1:10">
@@ -18206,7 +18231,7 @@
       </c>
       <c r="I414" s="4"/>
       <c r="J414" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="415" spans="1:10">
@@ -18234,7 +18259,7 @@
       </c>
       <c r="I415" s="4"/>
       <c r="J415" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="416" spans="1:10">
@@ -18262,7 +18287,7 @@
       </c>
       <c r="I416" s="4"/>
       <c r="J416" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="417" spans="1:10">
@@ -18290,7 +18315,7 @@
       </c>
       <c r="I417" s="4"/>
       <c r="J417" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="418" spans="1:10">
@@ -18318,7 +18343,7 @@
       </c>
       <c r="I418" s="4"/>
       <c r="J418" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="419" spans="1:10">
@@ -18346,7 +18371,7 @@
       </c>
       <c r="I419" s="4"/>
       <c r="J419" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="420" spans="1:10">
@@ -18374,7 +18399,7 @@
       </c>
       <c r="I420" s="4"/>
       <c r="J420" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="421" spans="1:10">
@@ -18402,7 +18427,7 @@
       </c>
       <c r="I421" s="4"/>
       <c r="J421" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="422" spans="1:10">
@@ -18430,7 +18455,7 @@
       </c>
       <c r="I422" s="4"/>
       <c r="J422" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="423" spans="1:10">
@@ -18458,7 +18483,7 @@
       </c>
       <c r="I423" s="4"/>
       <c r="J423" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="424" spans="1:10">
@@ -18486,7 +18511,7 @@
       </c>
       <c r="I424" s="4"/>
       <c r="J424" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="425" spans="1:10">
@@ -18514,7 +18539,7 @@
       </c>
       <c r="I425" s="4"/>
       <c r="J425" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="426" spans="1:10">
@@ -18542,7 +18567,7 @@
       </c>
       <c r="I426" s="4"/>
       <c r="J426" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="427" spans="1:10">
@@ -18570,7 +18595,7 @@
       </c>
       <c r="I427" s="4"/>
       <c r="J427" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="428" spans="1:10">
@@ -18598,7 +18623,7 @@
       </c>
       <c r="I428" s="4"/>
       <c r="J428" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="429" spans="1:10">
@@ -18626,7 +18651,7 @@
       </c>
       <c r="I429" s="4"/>
       <c r="J429" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="430" spans="1:10">
@@ -18654,7 +18679,7 @@
       </c>
       <c r="I430" s="4"/>
       <c r="J430" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="431" spans="1:10">
@@ -18682,7 +18707,7 @@
       </c>
       <c r="I431" s="4"/>
       <c r="J431" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="432" spans="1:10">
@@ -18710,7 +18735,7 @@
       </c>
       <c r="I432" s="4"/>
       <c r="J432" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="433" spans="1:10">
@@ -18738,7 +18763,7 @@
       </c>
       <c r="I433" s="4"/>
       <c r="J433" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="434" spans="1:10">
@@ -18766,7 +18791,7 @@
       </c>
       <c r="I434" s="4"/>
       <c r="J434" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="435" spans="1:10">
@@ -18794,7 +18819,7 @@
       </c>
       <c r="I435" s="4"/>
       <c r="J435" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="436" spans="1:10">
@@ -18822,7 +18847,7 @@
       </c>
       <c r="I436" s="4"/>
       <c r="J436" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="437" spans="1:10">
@@ -18850,7 +18875,7 @@
       </c>
       <c r="I437" s="4"/>
       <c r="J437" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="438" spans="1:10">
@@ -18878,7 +18903,7 @@
       </c>
       <c r="I438" s="4"/>
       <c r="J438" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="439" spans="1:10">
@@ -18906,7 +18931,7 @@
       </c>
       <c r="I439" s="4"/>
       <c r="J439" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="440" spans="1:10">
@@ -18934,7 +18959,7 @@
       </c>
       <c r="I440" s="4"/>
       <c r="J440" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="441" spans="1:10">
@@ -18962,7 +18987,7 @@
       </c>
       <c r="I441" s="4"/>
       <c r="J441" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="442" spans="1:10">
@@ -18990,7 +19015,7 @@
       </c>
       <c r="I442" s="4"/>
       <c r="J442" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="443" spans="1:10">
@@ -19018,7 +19043,7 @@
       </c>
       <c r="I443" s="4"/>
       <c r="J443" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="444" spans="1:10">
@@ -19046,7 +19071,7 @@
       </c>
       <c r="I444" s="4"/>
       <c r="J444" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="445" spans="1:10">
@@ -19074,7 +19099,7 @@
       </c>
       <c r="I445" s="4"/>
       <c r="J445" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="446" spans="1:10">
@@ -19102,7 +19127,7 @@
       </c>
       <c r="I446" s="4"/>
       <c r="J446" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="447" spans="1:10">
@@ -19130,7 +19155,7 @@
       </c>
       <c r="I447" s="4"/>
       <c r="J447" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="448" spans="1:10">
@@ -19158,7 +19183,7 @@
       </c>
       <c r="I448" s="4"/>
       <c r="J448" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="449" spans="1:10">
@@ -19186,7 +19211,7 @@
       </c>
       <c r="I449" s="4"/>
       <c r="J449" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="450" spans="1:10">
@@ -19214,7 +19239,7 @@
       </c>
       <c r="I450" s="4"/>
       <c r="J450" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="451" spans="1:10">
@@ -19242,7 +19267,7 @@
       </c>
       <c r="I451" s="4"/>
       <c r="J451" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="452" spans="1:10">
@@ -19270,7 +19295,7 @@
       </c>
       <c r="I452" s="4"/>
       <c r="J452" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="453" spans="1:10">
@@ -19298,7 +19323,7 @@
       </c>
       <c r="I453" s="4"/>
       <c r="J453" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="454" spans="1:10">
@@ -19326,7 +19351,7 @@
       </c>
       <c r="I454" s="4"/>
       <c r="J454" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="455" spans="1:10">
@@ -19354,7 +19379,7 @@
       </c>
       <c r="I455" s="4"/>
       <c r="J455" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="456" spans="1:10">
@@ -19382,7 +19407,7 @@
       </c>
       <c r="I456" s="4"/>
       <c r="J456" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="457" spans="1:10">
@@ -19410,7 +19435,7 @@
       </c>
       <c r="I457" s="4"/>
       <c r="J457" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="458" spans="1:10">
@@ -19438,7 +19463,7 @@
       </c>
       <c r="I458" s="4"/>
       <c r="J458" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="459" spans="1:10">
@@ -19466,7 +19491,7 @@
       </c>
       <c r="I459" s="4"/>
       <c r="J459" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="460" spans="1:10">
@@ -19494,7 +19519,7 @@
       </c>
       <c r="I460" s="4"/>
       <c r="J460" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="461" spans="1:10">
@@ -19522,7 +19547,7 @@
       </c>
       <c r="I461" s="4"/>
       <c r="J461" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="462" spans="1:10">
@@ -19550,7 +19575,7 @@
       </c>
       <c r="I462" s="4"/>
       <c r="J462" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="463" spans="1:10">
@@ -19578,7 +19603,7 @@
       </c>
       <c r="I463" s="4"/>
       <c r="J463" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="464" spans="1:10">
@@ -19606,7 +19631,7 @@
       </c>
       <c r="I464" s="4"/>
       <c r="J464" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="465" spans="1:10">
@@ -19634,7 +19659,7 @@
       </c>
       <c r="I465" s="4"/>
       <c r="J465" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="466" spans="1:10">
@@ -19662,7 +19687,7 @@
       </c>
       <c r="I466" s="4"/>
       <c r="J466" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="467" spans="1:10">
@@ -19690,7 +19715,7 @@
       </c>
       <c r="I467" s="4"/>
       <c r="J467" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="468" spans="1:10">
@@ -19718,7 +19743,7 @@
       </c>
       <c r="I468" s="4"/>
       <c r="J468" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="469" spans="1:10">
@@ -19746,7 +19771,7 @@
       </c>
       <c r="I469" s="4"/>
       <c r="J469" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="470" spans="1:10">
@@ -19774,7 +19799,7 @@
       </c>
       <c r="I470" s="4"/>
       <c r="J470" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="471" spans="1:10">
@@ -19802,7 +19827,7 @@
       </c>
       <c r="I471" s="4"/>
       <c r="J471" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="472" spans="1:10">
@@ -19830,7 +19855,7 @@
       </c>
       <c r="I472" s="4"/>
       <c r="J472" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="473" spans="1:10">
@@ -19858,7 +19883,7 @@
       </c>
       <c r="I473" s="4"/>
       <c r="J473" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="474" spans="1:10">
@@ -19886,7 +19911,7 @@
       </c>
       <c r="I474" s="4"/>
       <c r="J474" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="475" spans="1:10">
@@ -19914,7 +19939,7 @@
       </c>
       <c r="I475" s="4"/>
       <c r="J475" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="476" spans="1:10">
@@ -19942,7 +19967,7 @@
       </c>
       <c r="I476" s="4"/>
       <c r="J476" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="477" spans="1:10">
@@ -19970,7 +19995,7 @@
       </c>
       <c r="I477" s="4"/>
       <c r="J477" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="478" spans="1:10">
@@ -19998,7 +20023,7 @@
       </c>
       <c r="I478" s="4"/>
       <c r="J478" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="479" spans="1:10">
@@ -20026,7 +20051,7 @@
       </c>
       <c r="I479" s="4"/>
       <c r="J479" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="480" spans="1:10">
@@ -20054,7 +20079,7 @@
       </c>
       <c r="I480" s="4"/>
       <c r="J480" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="481" spans="1:10">
@@ -20082,7 +20107,7 @@
       </c>
       <c r="I481" s="4"/>
       <c r="J481" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="482" spans="1:10">
@@ -20110,7 +20135,7 @@
       </c>
       <c r="I482" s="4"/>
       <c r="J482" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="483" spans="1:10">
@@ -20138,7 +20163,7 @@
       </c>
       <c r="I483" s="4"/>
       <c r="J483" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="484" spans="1:10">
@@ -20166,7 +20191,7 @@
       </c>
       <c r="I484" s="4"/>
       <c r="J484" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="485" spans="1:10">
@@ -20194,7 +20219,7 @@
       </c>
       <c r="I485" s="4"/>
       <c r="J485" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="486" spans="1:10">
@@ -20222,7 +20247,7 @@
       </c>
       <c r="I486" s="4"/>
       <c r="J486" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="487" spans="1:10">
@@ -20250,7 +20275,7 @@
       </c>
       <c r="I487" s="4"/>
       <c r="J487" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="488" spans="1:10">
@@ -20278,7 +20303,7 @@
       </c>
       <c r="I488" s="4"/>
       <c r="J488" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="489" spans="1:10">
@@ -20306,7 +20331,7 @@
       </c>
       <c r="I489" s="4"/>
       <c r="J489" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="490" spans="1:10">
@@ -20334,7 +20359,7 @@
       </c>
       <c r="I490" s="4"/>
       <c r="J490" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="491" spans="1:10">
@@ -20362,7 +20387,7 @@
       </c>
       <c r="I491" s="4"/>
       <c r="J491" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="492" spans="1:10">
@@ -20390,7 +20415,7 @@
       </c>
       <c r="I492" s="4"/>
       <c r="J492" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="493" spans="1:10">
@@ -20418,7 +20443,7 @@
       </c>
       <c r="I493" s="4"/>
       <c r="J493" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="494" spans="1:10">
@@ -20446,7 +20471,7 @@
       </c>
       <c r="I494" s="4"/>
       <c r="J494" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="495" spans="1:10">
@@ -20474,7 +20499,7 @@
       </c>
       <c r="I495" s="4"/>
       <c r="J495" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="496" spans="1:10">
@@ -20502,7 +20527,7 @@
       </c>
       <c r="I496" s="4"/>
       <c r="J496" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="497" spans="1:10">
@@ -20530,7 +20555,7 @@
       </c>
       <c r="I497" s="4"/>
       <c r="J497" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="498" spans="1:10">
@@ -20558,7 +20583,7 @@
       </c>
       <c r="I498" s="4"/>
       <c r="J498" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="499" spans="1:10">
@@ -20586,7 +20611,7 @@
       </c>
       <c r="I499" s="4"/>
       <c r="J499" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="500" spans="1:10">
@@ -20614,7 +20639,7 @@
       </c>
       <c r="I500" s="4"/>
       <c r="J500" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="501" spans="1:10">
@@ -20642,7 +20667,7 @@
       </c>
       <c r="I501" s="4"/>
       <c r="J501" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="502" spans="1:10">
@@ -20670,7 +20695,7 @@
       </c>
       <c r="I502" s="4"/>
       <c r="J502" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="503" spans="1:10">
@@ -20698,7 +20723,7 @@
       </c>
       <c r="I503" s="4"/>
       <c r="J503" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="504" spans="1:10">
@@ -20726,7 +20751,7 @@
       </c>
       <c r="I504" s="4"/>
       <c r="J504" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="505" spans="1:10">
@@ -20754,7 +20779,7 @@
       </c>
       <c r="I505" s="4"/>
       <c r="J505" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="506" spans="1:10">
@@ -20782,7 +20807,7 @@
       </c>
       <c r="I506" s="4"/>
       <c r="J506" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="507" spans="1:10">
@@ -20810,7 +20835,7 @@
       </c>
       <c r="I507" s="4"/>
       <c r="J507" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="508" spans="1:10">
@@ -20838,7 +20863,7 @@
       </c>
       <c r="I508" s="4"/>
       <c r="J508" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="509" spans="1:10">
@@ -20866,7 +20891,7 @@
       </c>
       <c r="I509" s="4"/>
       <c r="J509" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="510" spans="1:10">
@@ -20894,7 +20919,7 @@
       </c>
       <c r="I510" s="4"/>
       <c r="J510" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="511" spans="1:10">
@@ -20922,7 +20947,7 @@
       </c>
       <c r="I511" s="4"/>
       <c r="J511" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="512" spans="1:10">
@@ -20950,7 +20975,7 @@
       </c>
       <c r="I512" s="4"/>
       <c r="J512" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="513" spans="1:10">
@@ -20978,7 +21003,7 @@
       </c>
       <c r="I513" s="4"/>
       <c r="J513" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="514" spans="1:10">
@@ -21006,7 +21031,7 @@
       </c>
       <c r="I514" s="4"/>
       <c r="J514" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="515" spans="1:10">
@@ -21034,7 +21059,7 @@
       </c>
       <c r="I515" s="4"/>
       <c r="J515" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="516" spans="1:10">
@@ -21062,7 +21087,7 @@
       </c>
       <c r="I516" s="4"/>
       <c r="J516" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="517" spans="1:10">
@@ -21090,7 +21115,7 @@
       </c>
       <c r="I517" s="4"/>
       <c r="J517" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="518" spans="1:10">
@@ -21118,7 +21143,7 @@
       </c>
       <c r="I518" s="4"/>
       <c r="J518" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="519" spans="1:10">
@@ -21146,7 +21171,7 @@
       </c>
       <c r="I519" s="4"/>
       <c r="J519" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="520" spans="1:10">
@@ -21174,7 +21199,7 @@
       </c>
       <c r="I520" s="4"/>
       <c r="J520" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="521" spans="1:10">
@@ -21202,7 +21227,7 @@
       </c>
       <c r="I521" s="4"/>
       <c r="J521" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="522" spans="1:10">
@@ -21230,7 +21255,7 @@
       </c>
       <c r="I522" s="4"/>
       <c r="J522" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="523" spans="1:10">
@@ -21258,7 +21283,7 @@
       </c>
       <c r="I523" s="4"/>
       <c r="J523" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="524" spans="1:10">
@@ -21286,7 +21311,7 @@
       </c>
       <c r="I524" s="4"/>
       <c r="J524" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="525" spans="1:10">
@@ -21314,7 +21339,7 @@
       </c>
       <c r="I525" s="4"/>
       <c r="J525" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="526" spans="1:10">
@@ -21342,7 +21367,7 @@
       </c>
       <c r="I526" s="4"/>
       <c r="J526" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="527" spans="1:10">
@@ -21370,7 +21395,7 @@
       </c>
       <c r="I527" s="4"/>
       <c r="J527" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="528" spans="1:10">
@@ -21398,7 +21423,7 @@
       </c>
       <c r="I528" s="4"/>
       <c r="J528" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="529" spans="1:10">
@@ -21426,7 +21451,7 @@
       </c>
       <c r="I529" s="4"/>
       <c r="J529" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="530" spans="1:10">
@@ -21454,7 +21479,7 @@
       </c>
       <c r="I530" s="4"/>
       <c r="J530" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="531" spans="1:10">
@@ -21482,7 +21507,7 @@
       </c>
       <c r="I531" s="4"/>
       <c r="J531" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="532" spans="1:10">
@@ -21510,7 +21535,7 @@
       </c>
       <c r="I532" s="4"/>
       <c r="J532" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="533" spans="1:10">
@@ -21538,7 +21563,7 @@
       </c>
       <c r="I533" s="4"/>
       <c r="J533" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="534" spans="1:10">
@@ -21566,7 +21591,7 @@
       </c>
       <c r="I534" s="4"/>
       <c r="J534" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="535" spans="1:10">
@@ -21594,7 +21619,7 @@
       </c>
       <c r="I535" s="4"/>
       <c r="J535" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="536" spans="1:10">
@@ -21622,7 +21647,7 @@
       </c>
       <c r="I536" s="4"/>
       <c r="J536" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="537" spans="1:10">
@@ -21650,7 +21675,7 @@
       </c>
       <c r="I537" s="4"/>
       <c r="J537" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="538" spans="1:10">
@@ -21678,7 +21703,7 @@
       </c>
       <c r="I538" s="4"/>
       <c r="J538" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="539" spans="1:10">
@@ -21706,7 +21731,7 @@
       </c>
       <c r="I539" s="4"/>
       <c r="J539" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="540" spans="1:10">
@@ -21734,7 +21759,7 @@
       </c>
       <c r="I540" s="4"/>
       <c r="J540" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="541" spans="1:10">
@@ -21762,7 +21787,7 @@
       </c>
       <c r="I541" s="4"/>
       <c r="J541" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="542" spans="1:10">
@@ -21790,7 +21815,7 @@
       </c>
       <c r="I542" s="4"/>
       <c r="J542" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="543" spans="1:10">
@@ -21818,7 +21843,7 @@
       </c>
       <c r="I543" s="4"/>
       <c r="J543" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="544" spans="1:10">
@@ -21846,7 +21871,7 @@
       </c>
       <c r="I544" s="4"/>
       <c r="J544" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="545" spans="1:10">
@@ -21874,7 +21899,7 @@
       </c>
       <c r="I545" s="4"/>
       <c r="J545" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="546" spans="1:10">
@@ -21902,7 +21927,7 @@
       </c>
       <c r="I546" s="4"/>
       <c r="J546" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="547" spans="1:10">
@@ -21930,7 +21955,7 @@
       </c>
       <c r="I547" s="4"/>
       <c r="J547" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="548" spans="1:10">
@@ -21958,7 +21983,7 @@
       </c>
       <c r="I548" s="4"/>
       <c r="J548" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="549" spans="1:10">
@@ -21986,7 +22011,7 @@
       </c>
       <c r="I549" s="4"/>
       <c r="J549" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="550" spans="1:10">
@@ -22014,7 +22039,7 @@
       </c>
       <c r="I550" s="4"/>
       <c r="J550" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="551" spans="1:10">
@@ -22042,7 +22067,7 @@
       </c>
       <c r="I551" s="4"/>
       <c r="J551" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="552" spans="1:10">
@@ -22070,7 +22095,7 @@
       </c>
       <c r="I552" s="4"/>
       <c r="J552" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="553" spans="1:10">
@@ -22098,7 +22123,7 @@
       </c>
       <c r="I553" s="4"/>
       <c r="J553" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="554" spans="1:10">
@@ -22126,7 +22151,7 @@
       </c>
       <c r="I554" s="4"/>
       <c r="J554" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -22161,7 +22186,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -22172,12 +22197,12 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" s="52"/>
       <c r="D2" s="1" t="s">
@@ -22187,20 +22212,20 @@
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="D3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -22228,10 +22253,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -22246,7 +22271,7 @@
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -22284,31 +22309,31 @@
     <row r="7" spans="1:10">
       <c r="A7" s="14"/>
       <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" t="s">
         <v>283</v>
       </c>
-      <c r="C7" t="s">
-        <v>284</v>
-      </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F7" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>287</v>
-      </c>
       <c r="H7" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -23157,20 +23182,20 @@
   <sheetPr codeName="Tabelle5" enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -23179,12 +23204,12 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -23193,21 +23218,21 @@
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="D3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="D3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="D4" s="14">
         <v>28.013400000000001</v>
       </c>
@@ -23216,36 +23241,42 @@
       </c>
       <c r="F4" s="49"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>42</v>
+      <c r="F5" s="49" t="s">
+        <v>25</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -23261,44 +23292,59 @@
       <c r="E6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="14"/>
       <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" t="s">
         <v>283</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" t="s">
         <v>284</v>
       </c>
-      <c r="D7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <f>B8-273.15</f>
         <v>-23.149999999999977</v>
@@ -23315,17 +23361,17 @@
       <c r="E8">
         <v>0.742807</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>15.52028</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>22.581700000000001</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.71589999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9">
         <f t="shared" ref="A9:A10" si="0">B9-273.15</f>
         <v>26.850000000000023</v>
@@ -23342,17 +23388,17 @@
       <c r="E9">
         <v>0.74313700000000005</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>17.913620000000002</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>26.062100000000001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.7157</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>726.85</v>
@@ -23369,14 +23415,48 @@
       <c r="E10">
         <v>0.87029699999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>41.58032</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>65.840800000000002</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.73709999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="C11">
+        <v>101325</v>
+      </c>
+      <c r="F11">
+        <v>1.2509999999999999E-3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>-195.79499999999999</v>
+      </c>
+      <c r="B12">
+        <v>77.355000000000004</v>
+      </c>
+      <c r="C12">
+        <v>101325</v>
+      </c>
+      <c r="F12">
+        <v>808</v>
+      </c>
+      <c r="K12" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -23397,20 +23477,20 @@
   <sheetPr codeName="Tabelle6" enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K5" sqref="K5:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -23419,12 +23499,12 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -23433,21 +23513,21 @@
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="D3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="D3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="D4">
         <v>31.998799999999999</v>
       </c>
@@ -23456,36 +23536,42 @@
       </c>
       <c r="F4" s="49"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>42</v>
+      <c r="F5" s="49" t="s">
+        <v>25</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -23501,47 +23587,59 @@
       <c r="E6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="14"/>
       <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" t="s">
         <v>283</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" t="s">
         <v>284</v>
       </c>
-      <c r="D7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <f>B8-273.15</f>
         <v>-23.149999999999977</v>
@@ -23568,7 +23666,7 @@
         <v>0.72899999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9">
         <f t="shared" ref="A9:A10" si="0">B9-273.15</f>
         <v>26.850000000000023</v>
@@ -23595,7 +23693,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>99.850000000000023</v>
@@ -23640,20 +23738,20 @@
   <sheetPr codeName="Tabelle7" enableFormatConditionsCalculation="0">
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K5" sqref="K5:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -23662,12 +23760,12 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -23676,21 +23774,21 @@
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="D3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="D3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="D4" s="14">
         <v>44.009500000000003</v>
       </c>
@@ -23699,36 +23797,42 @@
       </c>
       <c r="F4" s="49"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>42</v>
+      <c r="F5" s="49" t="s">
+        <v>25</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -23736,7 +23840,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>4</v>
@@ -23744,47 +23848,59 @@
       <c r="E6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="14"/>
       <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" t="s">
         <v>283</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" t="s">
         <v>284</v>
       </c>
-      <c r="D7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <f>B8-273.15</f>
         <v>-23.149999999999977</v>
@@ -23801,17 +23917,17 @@
       <c r="E8">
         <v>0.60799999999999998</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>12.56</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>12.94</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9">
         <f t="shared" ref="A9:A10" si="0">B9-273.15</f>
         <v>26.850000000000023</v>
@@ -23828,17 +23944,17 @@
       <c r="E9">
         <v>0.65925</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>15.018800000000001</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>16.774850000000001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.76343399999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>626.85</v>
@@ -23855,14 +23971,75 @@
       <c r="E10">
         <v>1.0149999999999999</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>38.26</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>63.68</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>273.14999999999998</v>
+      </c>
+      <c r="C11">
+        <v>101325</v>
+      </c>
+      <c r="D11">
+        <v>0.84378549999999997</v>
+      </c>
+      <c r="F11">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>-78.5</v>
+      </c>
+      <c r="B12">
+        <f>A12+273.15</f>
+        <v>194.64999999999998</v>
+      </c>
+      <c r="C12">
+        <v>101325</v>
+      </c>
+      <c r="D12">
+        <v>0.84378549999999997</v>
+      </c>
+      <c r="F12">
+        <v>1562</v>
+      </c>
+      <c r="K12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>293.14999999999998</v>
+      </c>
+      <c r="C13">
+        <v>5674200</v>
+      </c>
+      <c r="D13">
+        <v>0.84378549999999997</v>
+      </c>
+      <c r="F13">
+        <v>770</v>
+      </c>
+      <c r="K13" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -23883,20 +24060,20 @@
   <sheetPr codeName="Tabelle8" enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K5" sqref="K5:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -23905,12 +24082,12 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -23919,21 +24096,21 @@
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="D3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="D3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="D4" s="14">
         <v>16.0425</v>
       </c>
@@ -23942,36 +24119,42 @@
       </c>
       <c r="F4" s="49"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>42</v>
+      <c r="F5" s="49" t="s">
+        <v>25</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -23988,46 +24171,58 @@
         <v>4</v>
       </c>
       <c r="F6" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="14"/>
       <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" t="s">
         <v>283</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" t="s">
         <v>284</v>
       </c>
-      <c r="D7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <f>B8-273.15</f>
         <v>-23.149999999999977</v>
@@ -24054,7 +24249,7 @@
         <v>0.90109499999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9">
         <f t="shared" ref="A9:A12" si="0">B9-273.15</f>
         <v>26.850000000000023</v>
@@ -24081,7 +24276,7 @@
         <v>0.90109499999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>226.85000000000002</v>
@@ -24108,7 +24303,7 @@
         <v>0.90109499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>426.85</v>
@@ -24135,7 +24330,7 @@
         <v>0.90109499999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>626.85</v>
@@ -24181,20 +24376,20 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle9" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K5" sqref="K5:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -24203,12 +24398,12 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
@@ -24217,21 +24412,21 @@
         <v>4</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="D3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="D3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="D4" s="14">
         <v>2.0158800000000001</v>
       </c>
@@ -24240,36 +24435,42 @@
       </c>
       <c r="F4" s="49"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>42</v>
+      <c r="F5" s="49" t="s">
+        <v>25</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -24285,47 +24486,59 @@
       <c r="E6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="14"/>
       <c r="B7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" t="s">
         <v>283</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" t="s">
         <v>284</v>
       </c>
-      <c r="D7" t="s">
-        <v>276</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="G7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="F7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G7" s="14" t="s">
+      <c r="I7" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="H7" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="46" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <f>B8-273.15</f>
         <v>-23.149999999999977</v>
@@ -24352,7 +24565,7 @@
         <v>0.90109499999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9">
         <f t="shared" ref="A9:A10" si="0">B9-273.15</f>
         <v>26.850000000000023</v>
@@ -24379,7 +24592,7 @@
         <v>0.90109499999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>726.85</v>
